--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1867967.131702639</v>
+        <v>1867264.996018265</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2446118.202799311</v>
+        <v>2446118.202799312</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>198.698839673052</v>
+        <v>138.0295677382296</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5893206914454</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.74649515820825</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>42.18246213585448</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.67262509955668</v>
+        <v>72.6726250995566</v>
       </c>
       <c r="V11" t="n">
-        <v>149.1209360183646</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>170.6096462656427</v>
       </c>
       <c r="X11" t="n">
-        <v>191.0997782266988</v>
+        <v>191.0997782266987</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>9.413571102866035</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>79.79315073593985</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.83975863332245</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T12" t="n">
-        <v>198.698839673052</v>
+        <v>20.4091259801058</v>
       </c>
       <c r="U12" t="n">
-        <v>47.29170902643612</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="V12" t="n">
-        <v>54.169264697655</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="W12" t="n">
-        <v>73.06366070914933</v>
+        <v>73.06366070914925</v>
       </c>
       <c r="X12" t="n">
-        <v>27.1416627517072</v>
+        <v>86.68643338673382</v>
       </c>
       <c r="Y12" t="n">
-        <v>198.698839673052</v>
+        <v>27.051373325534</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.200657730167023</v>
+        <v>1.200657730166938</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>41.30999778875466</v>
+        <v>41.30999778875458</v>
       </c>
       <c r="T13" t="n">
-        <v>48.31511175255179</v>
+        <v>48.3151117525517</v>
       </c>
       <c r="U13" t="n">
-        <v>107.6749517316488</v>
+        <v>107.6749517316487</v>
       </c>
       <c r="V13" t="n">
-        <v>73.50632087205773</v>
+        <v>73.50632087205764</v>
       </c>
       <c r="W13" t="n">
-        <v>107.8916758848207</v>
+        <v>107.8916758848206</v>
       </c>
       <c r="X13" t="n">
-        <v>47.07833293726688</v>
+        <v>47.07833293726679</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.95333090032452</v>
+        <v>39.95333090032443</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>186.6415693192373</v>
+        <v>186.6415693192372</v>
       </c>
       <c r="D14" t="n">
-        <v>176.0517191689127</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>173.5564433091684</v>
       </c>
       <c r="H14" t="n">
-        <v>155.5045423845798</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11.74649515820825</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18.50923699120968</v>
+        <v>18.50923699120959</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.67262509955668</v>
+        <v>72.6726250995566</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>149.1209360183645</v>
       </c>
       <c r="W14" t="n">
-        <v>149.9842688814756</v>
+        <v>170.6096462656427</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>5.60358624843413</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="U15" t="n">
-        <v>47.29170902643612</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="V15" t="n">
-        <v>54.169264697655</v>
+        <v>54.16926469765491</v>
       </c>
       <c r="W15" t="n">
-        <v>73.06366070914933</v>
+        <v>93.79329996083496</v>
       </c>
       <c r="X15" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.05137332553409</v>
+        <v>27.051373325534</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.200657730167023</v>
+        <v>1.200657730166938</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>41.30999778875466</v>
+        <v>41.30999778875458</v>
       </c>
       <c r="T16" t="n">
-        <v>48.31511175255179</v>
+        <v>48.3151117525517</v>
       </c>
       <c r="U16" t="n">
-        <v>107.6749517316488</v>
+        <v>107.6749517316487</v>
       </c>
       <c r="V16" t="n">
-        <v>73.50632087205773</v>
+        <v>73.50632087205764</v>
       </c>
       <c r="W16" t="n">
-        <v>107.8916758848207</v>
+        <v>107.8916758848206</v>
       </c>
       <c r="X16" t="n">
-        <v>47.07833293726688</v>
+        <v>47.07833293726679</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.95333090032452</v>
+        <v>39.95333090032443</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.52790659228504</v>
+        <v>82.52790659228498</v>
       </c>
       <c r="C17" t="n">
-        <v>65.06695669981201</v>
+        <v>65.06695669981195</v>
       </c>
       <c r="D17" t="n">
-        <v>54.47710654948742</v>
+        <v>54.47710654948736</v>
       </c>
       <c r="E17" t="n">
-        <v>81.72443500106624</v>
+        <v>81.72443500106618</v>
       </c>
       <c r="F17" t="n">
-        <v>106.6701106705159</v>
+        <v>106.6701106705158</v>
       </c>
       <c r="G17" t="n">
         <v>114.5754854875702</v>
       </c>
       <c r="H17" t="n">
-        <v>33.92992976515455</v>
+        <v>33.9299297651545</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>27.54632339893936</v>
+        <v>27.54632339893931</v>
       </c>
       <c r="W17" t="n">
-        <v>49.03503364621747</v>
+        <v>49.03503364621741</v>
       </c>
       <c r="X17" t="n">
-        <v>69.52516560727349</v>
+        <v>69.52516560727344</v>
       </c>
       <c r="Y17" t="n">
-        <v>86.03200358485805</v>
+        <v>86.03200358485799</v>
       </c>
     </row>
     <row r="18">
@@ -1923,22 +1923,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>101.0467519553034</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>8.511753728471106</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.83975863332245</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
     </row>
     <row r="19">
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>66.58072672426808</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>35.23026070930631</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>101.8109874335741</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.5279065922858</v>
+        <v>82.52790659228498</v>
       </c>
       <c r="C20" t="n">
-        <v>65.06695669981201</v>
+        <v>65.06695669981195</v>
       </c>
       <c r="D20" t="n">
-        <v>54.47710654948742</v>
+        <v>54.47710654948736</v>
       </c>
       <c r="E20" t="n">
-        <v>81.72443500106624</v>
+        <v>81.72443500106618</v>
       </c>
       <c r="F20" t="n">
-        <v>106.6701106705159</v>
+        <v>106.6701106705161</v>
       </c>
       <c r="G20" t="n">
-        <v>114.5754854875702</v>
+        <v>114.5754854875701</v>
       </c>
       <c r="H20" t="n">
-        <v>33.92992976515455</v>
+        <v>33.9299297651545</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>27.54632339893936</v>
+        <v>27.54632339893931</v>
       </c>
       <c r="W20" t="n">
-        <v>49.03503364621747</v>
+        <v>49.03503364621741</v>
       </c>
       <c r="X20" t="n">
-        <v>69.52516560727349</v>
+        <v>69.52516560727344</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.03200358485805</v>
+        <v>86.03200358485799</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>79.79315073593985</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="U21" t="n">
-        <v>189.0206949431903</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>40.6774097516555</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.58072672426808</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>85.31362736414565</v>
+        <v>101.8109874335744</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.52790659228504</v>
+        <v>82.52790659228498</v>
       </c>
       <c r="C23" t="n">
-        <v>65.06695669981201</v>
+        <v>65.06695669981195</v>
       </c>
       <c r="D23" t="n">
-        <v>54.47710654948742</v>
+        <v>54.47710654948736</v>
       </c>
       <c r="E23" t="n">
-        <v>81.72443500106624</v>
+        <v>81.72443500106618</v>
       </c>
       <c r="F23" t="n">
-        <v>106.6701106705159</v>
+        <v>106.6701106705158</v>
       </c>
       <c r="G23" t="n">
-        <v>114.5754854875702</v>
+        <v>114.5754854875701</v>
       </c>
       <c r="H23" t="n">
-        <v>33.92992976515455</v>
+        <v>33.9299297651545</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>27.54632339893936</v>
+        <v>27.54632339893931</v>
       </c>
       <c r="W23" t="n">
-        <v>49.03503364621747</v>
+        <v>49.03503364621741</v>
       </c>
       <c r="X23" t="n">
-        <v>69.52516560727349</v>
+        <v>69.52516560727344</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.03200358485805</v>
+        <v>86.03200358485799</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.83975863332245</v>
       </c>
       <c r="S24" t="n">
-        <v>127.1066139058537</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>198.698839673052</v>
+        <v>124.3398353738858</v>
       </c>
       <c r="Y24" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
     </row>
     <row r="25">
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>66.58072672426808</v>
       </c>
       <c r="R25" t="n">
-        <v>6.473306065482492</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>35.23026070930631</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2567,10 @@
         <v>257.8739555188549</v>
       </c>
       <c r="G26" t="n">
-        <v>265.7793303359093</v>
+        <v>265.7793303359092</v>
       </c>
       <c r="H26" t="n">
-        <v>185.1337746134935</v>
+        <v>185.1337746134936</v>
       </c>
       <c r="I26" t="n">
         <v>41.375727387122</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>48.13846922012341</v>
+        <v>48.13846922012343</v>
       </c>
       <c r="T26" t="n">
         <v>71.81169436476821</v>
@@ -2637,19 +2637,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.83975863332245</v>
       </c>
       <c r="S27" t="n">
         <v>166.5021842555528</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0404484318762</v>
+        <v>50.03835820901962</v>
       </c>
       <c r="U27" t="n">
         <v>225.9230314782064</v>
       </c>
       <c r="V27" t="n">
-        <v>83.79849692656873</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>102.6928929380631</v>
       </c>
       <c r="X27" t="n">
-        <v>187.7998627581091</v>
+        <v>56.77089498062094</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>82.83670493526505</v>
       </c>
     </row>
     <row r="28">
@@ -2804,13 +2804,13 @@
         <v>257.8739555188549</v>
       </c>
       <c r="G29" t="n">
-        <v>265.7793303359093</v>
+        <v>265.7793303359092</v>
       </c>
       <c r="H29" t="n">
         <v>185.1337746134935</v>
       </c>
       <c r="I29" t="n">
-        <v>41.375727387122</v>
+        <v>41.37572738712197</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>48.13846922012341</v>
+        <v>48.13846922012338</v>
       </c>
       <c r="T29" t="n">
-        <v>71.81169436476821</v>
+        <v>71.81169436476819</v>
       </c>
       <c r="U29" t="n">
         <v>102.3018573284704</v>
       </c>
       <c r="V29" t="n">
-        <v>178.7501682472784</v>
+        <v>178.7501682472783</v>
       </c>
       <c r="W29" t="n">
-        <v>200.2388784945565</v>
+        <v>200.2388784945564</v>
       </c>
       <c r="X29" t="n">
         <v>220.7290104556125</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.7996221092916</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2880,16 +2880,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>79.79315073593985</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>166.5021842555528</v>
       </c>
       <c r="T30" t="n">
-        <v>50.03835820901962</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U30" t="n">
         <v>225.9230314782064</v>
       </c>
       <c r="V30" t="n">
-        <v>83.79849692656873</v>
+        <v>83.7984969265687</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>123.3590898311896</v>
       </c>
       <c r="X30" t="n">
-        <v>56.77089498062094</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>56.68060555444782</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.82988995908076</v>
+        <v>30.82988995908073</v>
       </c>
       <c r="C31" t="n">
-        <v>18.2447308757713</v>
+        <v>18.24473087577127</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.75504429595214</v>
+        <v>18.75504429595211</v>
       </c>
       <c r="H31" t="n">
-        <v>11.14598907387596</v>
+        <v>11.14598907387593</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.77678681877386</v>
+        <v>17.77678681877384</v>
       </c>
       <c r="S31" t="n">
-        <v>70.93923001766841</v>
+        <v>70.93923001766838</v>
       </c>
       <c r="T31" t="n">
-        <v>77.94434398146552</v>
+        <v>77.94434398146549</v>
       </c>
       <c r="U31" t="n">
         <v>137.3041839605625</v>
       </c>
       <c r="V31" t="n">
-        <v>103.1355531009715</v>
+        <v>103.1355531009714</v>
       </c>
       <c r="W31" t="n">
-        <v>137.5209081137345</v>
+        <v>137.5209081137344</v>
       </c>
       <c r="X31" t="n">
-        <v>76.70756516618061</v>
+        <v>76.70756516618059</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.58256312923825</v>
+        <v>69.58256312923822</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.731751440624</v>
+        <v>233.7317514406241</v>
       </c>
       <c r="C32" t="n">
         <v>216.270801548151</v>
@@ -3035,19 +3035,19 @@
         <v>205.6809513978264</v>
       </c>
       <c r="E32" t="n">
-        <v>232.9282798494052</v>
+        <v>232.9282798494053</v>
       </c>
       <c r="F32" t="n">
         <v>257.8739555188549</v>
       </c>
       <c r="G32" t="n">
-        <v>265.7793303359092</v>
+        <v>265.7793303359093</v>
       </c>
       <c r="H32" t="n">
         <v>185.1337746134936</v>
       </c>
       <c r="I32" t="n">
-        <v>41.375727387122</v>
+        <v>41.37572738712203</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.13846922012343</v>
+        <v>48.13846922012345</v>
       </c>
       <c r="T32" t="n">
-        <v>71.81169436476821</v>
+        <v>71.81169436476824</v>
       </c>
       <c r="U32" t="n">
         <v>102.3018573284704</v>
@@ -3095,7 +3095,7 @@
         <v>220.7290104556125</v>
       </c>
       <c r="Y32" t="n">
-        <v>237.235848433197</v>
+        <v>237.2358484331971</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>17.53109342701083</v>
       </c>
       <c r="C33" t="n">
-        <v>23.7064087654592</v>
+        <v>23.70640876545923</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>199.0404484318762</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9230314782064</v>
+        <v>140.9805304507139</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>115.3544654389365</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>56.68060555444785</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.82988995908076</v>
+        <v>30.82988995908079</v>
       </c>
       <c r="C34" t="n">
-        <v>18.2447308757713</v>
+        <v>18.24473087577132</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.75504429595214</v>
+        <v>18.75504429595217</v>
       </c>
       <c r="H34" t="n">
-        <v>11.14598907387596</v>
+        <v>11.14598907387598</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.77678681877386</v>
+        <v>17.77678681877389</v>
       </c>
       <c r="S34" t="n">
-        <v>70.93923001766841</v>
+        <v>70.93923001766844</v>
       </c>
       <c r="T34" t="n">
-        <v>77.94434398146552</v>
+        <v>77.94434398146555</v>
       </c>
       <c r="U34" t="n">
-        <v>137.3041839605625</v>
+        <v>137.3041839605626</v>
       </c>
       <c r="V34" t="n">
         <v>103.1355531009715</v>
@@ -3250,10 +3250,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X34" t="n">
-        <v>76.70756516618061</v>
+        <v>76.70756516618064</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.58256312923825</v>
+        <v>69.58256312923828</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>181.301269871706</v>
+        <v>181.3012698717061</v>
       </c>
       <c r="C35" t="n">
-        <v>163.8403199792329</v>
+        <v>163.840319979233</v>
       </c>
       <c r="D35" t="n">
-        <v>153.2504698289083</v>
+        <v>153.2504698289085</v>
       </c>
       <c r="E35" t="n">
-        <v>180.4977982804872</v>
+        <v>180.4977982804873</v>
       </c>
       <c r="F35" t="n">
-        <v>205.4434739499368</v>
+        <v>205.4434739499369</v>
       </c>
       <c r="G35" t="n">
         <v>213.3488487669912</v>
       </c>
       <c r="H35" t="n">
-        <v>132.7032930445755</v>
+        <v>132.7032930445756</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>19.38121279585013</v>
+        <v>19.38121279585025</v>
       </c>
       <c r="U35" t="n">
-        <v>49.87137575955234</v>
+        <v>49.87137575955244</v>
       </c>
       <c r="V35" t="n">
-        <v>126.3196866783603</v>
+        <v>126.3196866783604</v>
       </c>
       <c r="W35" t="n">
-        <v>147.8083969256384</v>
+        <v>147.8083969256385</v>
       </c>
       <c r="X35" t="n">
-        <v>168.2985288866944</v>
+        <v>168.2985288866945</v>
       </c>
       <c r="Y35" t="n">
-        <v>184.805366864279</v>
+        <v>184.8053668642791</v>
       </c>
     </row>
     <row r="36">
@@ -3345,25 +3345,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>46.80928115836731</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>119.1441369564728</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>79.79315073593985</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.50874844875032</v>
+        <v>18.50874844875043</v>
       </c>
       <c r="T37" t="n">
-        <v>25.51386241254744</v>
+        <v>25.51386241254755</v>
       </c>
       <c r="U37" t="n">
-        <v>84.87370239164444</v>
+        <v>84.87370239164456</v>
       </c>
       <c r="V37" t="n">
-        <v>50.70507153205338</v>
+        <v>50.70507153205349</v>
       </c>
       <c r="W37" t="n">
-        <v>85.09042654481638</v>
+        <v>85.09042654481649</v>
       </c>
       <c r="X37" t="n">
-        <v>24.27708359726253</v>
+        <v>24.27708359726265</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.15208156032017</v>
+        <v>17.15208156032028</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>181.301269871706</v>
+        <v>181.3012698717061</v>
       </c>
       <c r="C38" t="n">
         <v>163.840319979233</v>
       </c>
       <c r="D38" t="n">
-        <v>153.2504698289084</v>
+        <v>153.2504698289085</v>
       </c>
       <c r="E38" t="n">
-        <v>180.4977982804872</v>
+        <v>180.4977982804873</v>
       </c>
       <c r="F38" t="n">
-        <v>205.4434739499368</v>
+        <v>205.4434739499369</v>
       </c>
       <c r="G38" t="n">
-        <v>213.3488487669912</v>
+        <v>213.3488487669913</v>
       </c>
       <c r="H38" t="n">
-        <v>132.7032930445755</v>
+        <v>132.7032930445756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>19.38121279585016</v>
+        <v>19.38121279585025</v>
       </c>
       <c r="U38" t="n">
-        <v>49.87137575955236</v>
+        <v>49.87137575955245</v>
       </c>
       <c r="V38" t="n">
-        <v>126.3196866783603</v>
+        <v>126.3196866783604</v>
       </c>
       <c r="W38" t="n">
-        <v>147.8083969256384</v>
+        <v>147.8083969256385</v>
       </c>
       <c r="X38" t="n">
-        <v>168.2985288866944</v>
+        <v>168.2985288866945</v>
       </c>
       <c r="Y38" t="n">
-        <v>184.805366864279</v>
+        <v>184.8053668642791</v>
       </c>
     </row>
     <row r="39">
@@ -3585,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>125.4748769609449</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.83975863332245</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>166.5021842555528</v>
@@ -3639,7 +3639,7 @@
         <v>225.9230314782064</v>
       </c>
       <c r="V39" t="n">
-        <v>120.1664781929015</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.50874844875035</v>
+        <v>18.50874844875043</v>
       </c>
       <c r="T40" t="n">
-        <v>25.51386241254747</v>
+        <v>25.51386241254755</v>
       </c>
       <c r="U40" t="n">
-        <v>84.87370239164447</v>
+        <v>84.87370239164456</v>
       </c>
       <c r="V40" t="n">
-        <v>50.70507153205341</v>
+        <v>50.70507153205349</v>
       </c>
       <c r="W40" t="n">
-        <v>85.09042654481641</v>
+        <v>85.09042654481649</v>
       </c>
       <c r="X40" t="n">
-        <v>24.27708359726256</v>
+        <v>24.27708359726265</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.1520815603202</v>
+        <v>17.15208156032028</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.301269871706</v>
+        <v>181.3012698717061</v>
       </c>
       <c r="C41" t="n">
-        <v>163.8403199792329</v>
+        <v>163.840319979233</v>
       </c>
       <c r="D41" t="n">
-        <v>153.2504698289083</v>
+        <v>153.2504698289085</v>
       </c>
       <c r="E41" t="n">
-        <v>180.4977982804872</v>
+        <v>180.4977982804873</v>
       </c>
       <c r="F41" t="n">
-        <v>205.4434739499368</v>
+        <v>205.4434739499369</v>
       </c>
       <c r="G41" t="n">
-        <v>213.3488487669911</v>
+        <v>213.3488487669912</v>
       </c>
       <c r="H41" t="n">
-        <v>132.7032930445755</v>
+        <v>132.7032930445756</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>19.38121279585013</v>
+        <v>19.38121279585025</v>
       </c>
       <c r="U41" t="n">
-        <v>49.87137575955233</v>
+        <v>49.87137575955244</v>
       </c>
       <c r="V41" t="n">
-        <v>126.3196866783603</v>
+        <v>126.3196866783604</v>
       </c>
       <c r="W41" t="n">
-        <v>147.8083969256384</v>
+        <v>147.8083969256385</v>
       </c>
       <c r="X41" t="n">
-        <v>168.2985288866944</v>
+        <v>168.2985288866945</v>
       </c>
       <c r="Y41" t="n">
-        <v>184.805366864279</v>
+        <v>184.8053668642791</v>
       </c>
     </row>
     <row r="42">
@@ -3816,25 +3816,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55.92133038003184</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>199.0404484318762</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9230314782064</v>
+        <v>187.5465132509874</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>4.25012398552974</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.50874844875032</v>
+        <v>18.50874844875043</v>
       </c>
       <c r="T43" t="n">
-        <v>25.51386241254744</v>
+        <v>25.51386241254755</v>
       </c>
       <c r="U43" t="n">
-        <v>84.87370239164444</v>
+        <v>84.87370239164456</v>
       </c>
       <c r="V43" t="n">
-        <v>50.70507153205338</v>
+        <v>50.70507153205349</v>
       </c>
       <c r="W43" t="n">
-        <v>85.09042654481638</v>
+        <v>85.09042654481649</v>
       </c>
       <c r="X43" t="n">
-        <v>24.27708359726253</v>
+        <v>24.27708359726265</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.15208156032017</v>
+        <v>17.15208156032028</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>181.301269871706</v>
+        <v>181.3012698717061</v>
       </c>
       <c r="C44" t="n">
-        <v>163.8403199792329</v>
+        <v>163.840319979233</v>
       </c>
       <c r="D44" t="n">
-        <v>153.2504698289083</v>
+        <v>153.2504698289085</v>
       </c>
       <c r="E44" t="n">
-        <v>180.4977982804872</v>
+        <v>180.4977982804873</v>
       </c>
       <c r="F44" t="n">
-        <v>205.4434739499368</v>
+        <v>205.4434739499369</v>
       </c>
       <c r="G44" t="n">
-        <v>213.3488487669911</v>
+        <v>213.3488487669913</v>
       </c>
       <c r="H44" t="n">
-        <v>132.7032930445755</v>
+        <v>132.7032930445756</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>19.38121279585013</v>
+        <v>19.38121279585025</v>
       </c>
       <c r="U44" t="n">
-        <v>49.87137575955142</v>
+        <v>49.87137575955245</v>
       </c>
       <c r="V44" t="n">
-        <v>126.3196866783603</v>
+        <v>126.3196866783604</v>
       </c>
       <c r="W44" t="n">
-        <v>147.8083969256384</v>
+        <v>147.8083969256385</v>
       </c>
       <c r="X44" t="n">
-        <v>168.2985288866944</v>
+        <v>168.2985288866945</v>
       </c>
       <c r="Y44" t="n">
-        <v>184.805366864279</v>
+        <v>184.8053668642791</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>79.79315073593985</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T45" t="n">
         <v>199.0404484318762</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9230314782064</v>
+        <v>24.49045968643189</v>
       </c>
       <c r="V45" t="n">
-        <v>31.36801535765065</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>200.2691511596582</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>86.63594834166037</v>
       </c>
     </row>
     <row r="46">
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.50874844875032</v>
+        <v>18.50874844875043</v>
       </c>
       <c r="T46" t="n">
-        <v>25.51386241254744</v>
+        <v>25.51386241254755</v>
       </c>
       <c r="U46" t="n">
-        <v>84.87370239164444</v>
+        <v>84.87370239164456</v>
       </c>
       <c r="V46" t="n">
-        <v>50.70507153205338</v>
+        <v>50.70507153205349</v>
       </c>
       <c r="W46" t="n">
-        <v>85.09042654481638</v>
+        <v>85.09042654481649</v>
       </c>
       <c r="X46" t="n">
-        <v>24.27708359726253</v>
+        <v>24.27708359726265</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.15208156032017</v>
+        <v>17.15208156032028</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>134.4169332846054</v>
+        <v>216.6018058334924</v>
       </c>
       <c r="C11" t="n">
-        <v>134.4169332846054</v>
+        <v>216.6018058334924</v>
       </c>
       <c r="D11" t="n">
-        <v>134.4169332846054</v>
+        <v>216.6018058334924</v>
       </c>
       <c r="E11" t="n">
-        <v>134.4169332846054</v>
+        <v>216.6018058334924</v>
       </c>
       <c r="F11" t="n">
-        <v>134.4169332846054</v>
+        <v>216.6018058334924</v>
       </c>
       <c r="G11" t="n">
-        <v>134.4169332846054</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="H11" t="n">
-        <v>27.76105379829694</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I11" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J11" t="n">
-        <v>47.86977448817003</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="K11" t="n">
-        <v>216.5351174699659</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="L11" t="n">
-        <v>237.4952311751344</v>
+        <v>212.6077584501654</v>
       </c>
       <c r="M11" t="n">
-        <v>434.2070824514559</v>
+        <v>212.6077584501654</v>
       </c>
       <c r="N11" t="n">
-        <v>630.9189337277774</v>
+        <v>409.3196097264866</v>
       </c>
       <c r="O11" t="n">
-        <v>630.9189337277774</v>
+        <v>606.0314610028079</v>
       </c>
       <c r="P11" t="n">
-        <v>794.7953586922079</v>
+        <v>769.9078859672384</v>
       </c>
       <c r="Q11" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="R11" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="S11" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="T11" t="n">
-        <v>752.1868110802336</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="U11" t="n">
-        <v>678.7801190604795</v>
+        <v>721.3886666724528</v>
       </c>
       <c r="V11" t="n">
-        <v>528.1529109611213</v>
+        <v>721.3886666724528</v>
       </c>
       <c r="W11" t="n">
-        <v>528.1529109611213</v>
+        <v>549.0556906465512</v>
       </c>
       <c r="X11" t="n">
-        <v>335.1228319442538</v>
+        <v>356.0256116296838</v>
       </c>
       <c r="Y11" t="n">
-        <v>335.1228319442538</v>
+        <v>356.0256116296838</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106.0037070110218</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="C12" t="n">
-        <v>106.0037070110218</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="D12" t="n">
-        <v>106.0037070110218</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="E12" t="n">
-        <v>106.0037070110218</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="F12" t="n">
-        <v>106.0037070110218</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="G12" t="n">
-        <v>106.0037070110218</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="H12" t="n">
-        <v>96.49504933135916</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I12" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J12" t="n">
-        <v>41.24594382033391</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0162341137482</v>
+        <v>185.8440006119359</v>
       </c>
       <c r="L12" t="n">
-        <v>296.7280853900696</v>
+        <v>382.5558518882572</v>
       </c>
       <c r="M12" t="n">
-        <v>296.7280853900696</v>
+        <v>579.2677031645784</v>
       </c>
       <c r="N12" t="n">
-        <v>493.4399366663911</v>
+        <v>579.2677031645784</v>
       </c>
       <c r="O12" t="n">
-        <v>690.1517879427125</v>
+        <v>690.1517879427116</v>
       </c>
       <c r="P12" t="n">
-        <v>690.1517879427125</v>
+        <v>690.1517879427116</v>
       </c>
       <c r="Q12" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="R12" t="n">
-        <v>711.1188348201649</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="S12" t="n">
-        <v>711.1188348201649</v>
+        <v>626.6113341916486</v>
       </c>
       <c r="T12" t="n">
-        <v>510.4129361605164</v>
+        <v>605.996055423865</v>
       </c>
       <c r="U12" t="n">
-        <v>462.6435331035103</v>
+        <v>405.2901567642167</v>
       </c>
       <c r="V12" t="n">
-        <v>407.9271041159799</v>
+        <v>204.5842581045685</v>
       </c>
       <c r="W12" t="n">
-        <v>334.1254266319907</v>
+        <v>130.7825806205793</v>
       </c>
       <c r="X12" t="n">
-        <v>306.7096056706703</v>
+        <v>43.22052669458556</v>
       </c>
       <c r="Y12" t="n">
-        <v>106.0037070110218</v>
+        <v>15.89590717384414</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="C13" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="D13" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="E13" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="F13" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="G13" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="H13" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I13" t="n">
-        <v>15.89590717384416</v>
+        <v>45.8069747891733</v>
       </c>
       <c r="J13" t="n">
-        <v>15.89590717384416</v>
+        <v>73.06738557630915</v>
       </c>
       <c r="K13" t="n">
-        <v>20.74594372277242</v>
+        <v>77.91742212523741</v>
       </c>
       <c r="L13" t="n">
-        <v>82.47875529922219</v>
+        <v>139.6502337016872</v>
       </c>
       <c r="M13" t="n">
-        <v>186.4078422554074</v>
+        <v>215.1279510246864</v>
       </c>
       <c r="N13" t="n">
-        <v>265.525484583312</v>
+        <v>294.2455933525911</v>
       </c>
       <c r="O13" t="n">
-        <v>462.2373358596335</v>
+        <v>351.3072460894055</v>
       </c>
       <c r="P13" t="n">
-        <v>487.5427552522201</v>
+        <v>376.6126654819921</v>
       </c>
       <c r="Q13" t="n">
-        <v>487.5427552522201</v>
+        <v>487.5427552522193</v>
       </c>
       <c r="R13" t="n">
-        <v>487.5427552522201</v>
+        <v>487.5427552522193</v>
       </c>
       <c r="S13" t="n">
-        <v>445.8154847585285</v>
+        <v>445.8154847585278</v>
       </c>
       <c r="T13" t="n">
-        <v>397.0123415741327</v>
+        <v>397.0123415741322</v>
       </c>
       <c r="U13" t="n">
-        <v>288.2497640674168</v>
+        <v>288.2497640674163</v>
       </c>
       <c r="V13" t="n">
-        <v>214.0009551057423</v>
+        <v>214.0009551057419</v>
       </c>
       <c r="W13" t="n">
-        <v>105.0194643129941</v>
+        <v>105.0194643129938</v>
       </c>
       <c r="X13" t="n">
-        <v>57.46559265918916</v>
+        <v>57.46559265918896</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.10869275987146</v>
+        <v>17.10869275987135</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>551.1932061949938</v>
+        <v>379.7322835661732</v>
       </c>
       <c r="C14" t="n">
-        <v>362.6663684987945</v>
+        <v>191.2054458699739</v>
       </c>
       <c r="D14" t="n">
-        <v>184.8363491362563</v>
+        <v>191.2054458699739</v>
       </c>
       <c r="E14" t="n">
-        <v>184.8363491362563</v>
+        <v>191.2054458699739</v>
       </c>
       <c r="F14" t="n">
-        <v>184.8363491362563</v>
+        <v>191.2054458699739</v>
       </c>
       <c r="G14" t="n">
-        <v>184.8363491362563</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="H14" t="n">
-        <v>27.76105379829694</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I14" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J14" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="K14" t="n">
-        <v>15.89590717384416</v>
+        <v>184.56125015564</v>
       </c>
       <c r="L14" t="n">
-        <v>212.6077584501656</v>
+        <v>237.495231175134</v>
       </c>
       <c r="M14" t="n">
-        <v>212.6077584501656</v>
+        <v>434.2070824514552</v>
       </c>
       <c r="N14" t="n">
-        <v>409.3196097264871</v>
+        <v>434.2070824514552</v>
       </c>
       <c r="O14" t="n">
-        <v>606.0314610028086</v>
+        <v>630.9189337277764</v>
       </c>
       <c r="P14" t="n">
-        <v>769.9078859672391</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="Q14" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="R14" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="S14" t="n">
-        <v>776.099159711188</v>
+        <v>776.0991597111872</v>
       </c>
       <c r="T14" t="n">
-        <v>776.099159711188</v>
+        <v>776.0991597111872</v>
       </c>
       <c r="U14" t="n">
-        <v>702.6924676914338</v>
+        <v>702.6924676914331</v>
       </c>
       <c r="V14" t="n">
-        <v>702.6924676914338</v>
+        <v>552.0652595920749</v>
       </c>
       <c r="W14" t="n">
-        <v>551.1932061949938</v>
+        <v>379.7322835661732</v>
       </c>
       <c r="X14" t="n">
-        <v>551.1932061949938</v>
+        <v>379.7322835661732</v>
       </c>
       <c r="Y14" t="n">
-        <v>551.1932061949938</v>
+        <v>379.7322835661732</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.5560953035756</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="C15" t="n">
-        <v>21.5560953035756</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="D15" t="n">
-        <v>21.5560953035756</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="E15" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="F15" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="G15" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="H15" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I15" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J15" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="K15" t="n">
-        <v>15.89590717384416</v>
+        <v>185.8440006119359</v>
       </c>
       <c r="L15" t="n">
-        <v>212.6077584501656</v>
+        <v>185.8440006119359</v>
       </c>
       <c r="M15" t="n">
-        <v>409.3196097264871</v>
+        <v>382.5558518882572</v>
       </c>
       <c r="N15" t="n">
-        <v>409.3196097264871</v>
+        <v>579.2677031645784</v>
       </c>
       <c r="O15" t="n">
-        <v>606.0314610028086</v>
+        <v>598.0835074158857</v>
       </c>
       <c r="P15" t="n">
-        <v>690.1517879427125</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="Q15" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="R15" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="S15" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="T15" t="n">
-        <v>594.0894600325594</v>
+        <v>594.0894600325587</v>
       </c>
       <c r="U15" t="n">
-        <v>546.3200569755531</v>
+        <v>393.3835613729104</v>
       </c>
       <c r="V15" t="n">
-        <v>491.6036279880228</v>
+        <v>338.6671323853802</v>
       </c>
       <c r="W15" t="n">
-        <v>417.8019505040336</v>
+        <v>243.9264253542338</v>
       </c>
       <c r="X15" t="n">
-        <v>217.0960518443851</v>
+        <v>43.22052669458556</v>
       </c>
       <c r="Y15" t="n">
-        <v>189.7714323236436</v>
+        <v>15.89590717384414</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="C16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="D16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="E16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="F16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="G16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="H16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="K16" t="n">
-        <v>20.74594372277242</v>
+        <v>20.7459437227724</v>
       </c>
       <c r="L16" t="n">
-        <v>82.47875529922219</v>
+        <v>82.47875529922217</v>
       </c>
       <c r="M16" t="n">
         <v>157.9564726222214</v>
       </c>
       <c r="N16" t="n">
-        <v>265.525484583312</v>
+        <v>237.0741149501261</v>
       </c>
       <c r="O16" t="n">
-        <v>462.2373358596335</v>
+        <v>294.1357676869405</v>
       </c>
       <c r="P16" t="n">
-        <v>487.5427552522201</v>
+        <v>487.5427552522193</v>
       </c>
       <c r="Q16" t="n">
-        <v>487.5427552522201</v>
+        <v>487.5427552522193</v>
       </c>
       <c r="R16" t="n">
-        <v>487.5427552522201</v>
+        <v>487.5427552522193</v>
       </c>
       <c r="S16" t="n">
-        <v>445.8154847585285</v>
+        <v>445.8154847585278</v>
       </c>
       <c r="T16" t="n">
-        <v>397.0123415741327</v>
+        <v>397.0123415741322</v>
       </c>
       <c r="U16" t="n">
-        <v>288.2497640674168</v>
+        <v>288.2497640674163</v>
       </c>
       <c r="V16" t="n">
-        <v>214.0009551057423</v>
+        <v>214.0009551057419</v>
       </c>
       <c r="W16" t="n">
-        <v>105.0194643129941</v>
+        <v>105.0194643129938</v>
       </c>
       <c r="X16" t="n">
-        <v>57.46559265918916</v>
+        <v>57.46559265918896</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.10869275987146</v>
+        <v>17.10869275987135</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>476.950477046174</v>
+        <v>476.9504770461735</v>
       </c>
       <c r="C17" t="n">
-        <v>411.2262783594952</v>
+        <v>411.2262783594949</v>
       </c>
       <c r="D17" t="n">
-        <v>356.1988980064775</v>
+        <v>356.1988980064774</v>
       </c>
       <c r="E17" t="n">
-        <v>273.6489636619661</v>
+        <v>273.648963661966</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9013771260915</v>
+        <v>165.9013771260914</v>
       </c>
       <c r="G17" t="n">
-        <v>50.16856350228311</v>
+        <v>50.16856350228303</v>
       </c>
       <c r="H17" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I17" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J17" t="n">
-        <v>47.86977448817003</v>
+        <v>47.86977448817001</v>
       </c>
       <c r="K17" t="n">
         <v>216.5351174699659</v>
       </c>
       <c r="L17" t="n">
-        <v>355.5290455545605</v>
+        <v>216.5351174699659</v>
       </c>
       <c r="M17" t="n">
-        <v>355.5290455545605</v>
+        <v>413.2469687462871</v>
       </c>
       <c r="N17" t="n">
-        <v>552.240896830882</v>
+        <v>413.2469687462871</v>
       </c>
       <c r="O17" t="n">
-        <v>748.9527481072034</v>
+        <v>609.9588200226083</v>
       </c>
       <c r="P17" t="n">
-        <v>748.9527481072034</v>
+        <v>773.8352449870388</v>
       </c>
       <c r="Q17" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="R17" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="S17" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="T17" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="U17" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="V17" t="n">
-        <v>766.9707896023701</v>
+        <v>766.9707896023692</v>
       </c>
       <c r="W17" t="n">
-        <v>717.4404525859889</v>
+        <v>717.4404525859881</v>
       </c>
       <c r="X17" t="n">
-        <v>647.2130125786418</v>
+        <v>647.2130125786412</v>
       </c>
       <c r="Y17" t="n">
-        <v>560.3119988565629</v>
+        <v>560.3119988565624</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>711.1188348201649</v>
+        <v>24.49363821270384</v>
       </c>
       <c r="C18" t="n">
-        <v>609.0514086026867</v>
+        <v>24.49363821270384</v>
       </c>
       <c r="D18" t="n">
-        <v>460.1169989414355</v>
+        <v>24.49363821270384</v>
       </c>
       <c r="E18" t="n">
-        <v>300.87954393598</v>
+        <v>24.49363821270384</v>
       </c>
       <c r="F18" t="n">
-        <v>154.344985962865</v>
+        <v>24.49363821270384</v>
       </c>
       <c r="G18" t="n">
-        <v>15.89590717384416</v>
+        <v>24.49363821270384</v>
       </c>
       <c r="H18" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I18" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J18" t="n">
-        <v>41.24594382033391</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="K18" t="n">
-        <v>211.1940372584257</v>
+        <v>185.8440006119359</v>
       </c>
       <c r="L18" t="n">
-        <v>211.1940372584257</v>
+        <v>204.6598048632433</v>
       </c>
       <c r="M18" t="n">
-        <v>296.7280853900696</v>
+        <v>401.3716561395645</v>
       </c>
       <c r="N18" t="n">
-        <v>296.7280853900696</v>
+        <v>401.3716561395645</v>
       </c>
       <c r="O18" t="n">
-        <v>493.4399366663911</v>
+        <v>598.0835074158857</v>
       </c>
       <c r="P18" t="n">
-        <v>690.1517879427125</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="Q18" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="R18" t="n">
-        <v>711.1188348201649</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="S18" t="n">
-        <v>711.1188348201649</v>
+        <v>626.6113341916486</v>
       </c>
       <c r="T18" t="n">
-        <v>711.1188348201649</v>
+        <v>626.6113341916486</v>
       </c>
       <c r="U18" t="n">
-        <v>711.1188348201649</v>
+        <v>425.9054355320003</v>
       </c>
       <c r="V18" t="n">
-        <v>711.1188348201649</v>
+        <v>425.9054355320003</v>
       </c>
       <c r="W18" t="n">
-        <v>711.1188348201649</v>
+        <v>225.1995368723521</v>
       </c>
       <c r="X18" t="n">
-        <v>711.1188348201649</v>
+        <v>225.1995368723521</v>
       </c>
       <c r="Y18" t="n">
-        <v>711.1188348201649</v>
+        <v>24.49363821270384</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="C19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="D19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="E19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="F19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="G19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="H19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="K19" t="n">
-        <v>20.74594372277242</v>
+        <v>20.7459437227724</v>
       </c>
       <c r="L19" t="n">
-        <v>82.47875529922219</v>
+        <v>82.47875529922217</v>
       </c>
       <c r="M19" t="n">
         <v>157.9564726222214</v>
@@ -5692,31 +5692,31 @@
         <v>319.4411870795271</v>
       </c>
       <c r="Q19" t="n">
-        <v>319.4411870795271</v>
+        <v>252.1879277620846</v>
       </c>
       <c r="R19" t="n">
-        <v>319.4411870795271</v>
+        <v>252.1879277620846</v>
       </c>
       <c r="S19" t="n">
-        <v>118.7352884198786</v>
+        <v>252.1879277620846</v>
       </c>
       <c r="T19" t="n">
-        <v>118.7352884198786</v>
+        <v>216.6018058334924</v>
       </c>
       <c r="U19" t="n">
-        <v>118.7352884198786</v>
+        <v>216.6018058334924</v>
       </c>
       <c r="V19" t="n">
-        <v>118.7352884198786</v>
+        <v>216.6018058334924</v>
       </c>
       <c r="W19" t="n">
-        <v>118.7352884198786</v>
+        <v>216.6018058334924</v>
       </c>
       <c r="X19" t="n">
-        <v>15.89590717384416</v>
+        <v>216.6018058334924</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>476.9504770461732</v>
+        <v>476.9504770461735</v>
       </c>
       <c r="C20" t="n">
         <v>411.2262783594949</v>
       </c>
       <c r="D20" t="n">
-        <v>356.1988980064773</v>
+        <v>356.1988980064774</v>
       </c>
       <c r="E20" t="n">
-        <v>273.6489636619659</v>
+        <v>273.648963661966</v>
       </c>
       <c r="F20" t="n">
         <v>165.9013771260912</v>
       </c>
       <c r="G20" t="n">
-        <v>50.16856350228311</v>
+        <v>50.16856350228303</v>
       </c>
       <c r="H20" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I20" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J20" t="n">
-        <v>22.98727760833415</v>
+        <v>35.99446188144739</v>
       </c>
       <c r="K20" t="n">
-        <v>191.65262059013</v>
+        <v>204.6598048632433</v>
       </c>
       <c r="L20" t="n">
-        <v>191.65262059013</v>
+        <v>401.3716561395645</v>
       </c>
       <c r="M20" t="n">
-        <v>388.3644718664515</v>
+        <v>598.0835074158857</v>
       </c>
       <c r="N20" t="n">
-        <v>585.0763231427729</v>
+        <v>598.0835074158857</v>
       </c>
       <c r="O20" t="n">
-        <v>585.0763231427729</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="P20" t="n">
-        <v>748.9527481072034</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="Q20" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="R20" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="S20" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="T20" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="U20" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="V20" t="n">
-        <v>766.9707896023701</v>
+        <v>766.9707896023692</v>
       </c>
       <c r="W20" t="n">
-        <v>717.4404525859889</v>
+        <v>717.4404525859879</v>
       </c>
       <c r="X20" t="n">
-        <v>647.2130125786418</v>
+        <v>647.213012578641</v>
       </c>
       <c r="Y20" t="n">
-        <v>560.3119988565629</v>
+        <v>560.3119988565622</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>234.94412812038</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="C21" t="n">
-        <v>234.94412812038</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="D21" t="n">
-        <v>234.94412812038</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="E21" t="n">
-        <v>234.94412812038</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="F21" t="n">
-        <v>234.94412812038</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="G21" t="n">
-        <v>96.49504933135916</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="H21" t="n">
-        <v>96.49504933135916</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I21" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J21" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="K21" t="n">
-        <v>185.844000611936</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="L21" t="n">
-        <v>185.844000611936</v>
+        <v>212.6077584501654</v>
       </c>
       <c r="M21" t="n">
-        <v>296.7280853900696</v>
+        <v>409.3196097264866</v>
       </c>
       <c r="N21" t="n">
-        <v>296.7280853900696</v>
+        <v>606.0314610028079</v>
       </c>
       <c r="O21" t="n">
-        <v>493.4399366663911</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="P21" t="n">
-        <v>690.1517879427125</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="Q21" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="R21" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="S21" t="n">
-        <v>794.7953586922079</v>
+        <v>626.6113341916486</v>
       </c>
       <c r="T21" t="n">
-        <v>794.7953586922079</v>
+        <v>425.9054355320003</v>
       </c>
       <c r="U21" t="n">
-        <v>603.8653638000965</v>
+        <v>225.1995368723521</v>
       </c>
       <c r="V21" t="n">
-        <v>603.8653638000965</v>
+        <v>225.1995368723521</v>
       </c>
       <c r="W21" t="n">
-        <v>403.159465140448</v>
+        <v>225.1995368723521</v>
       </c>
       <c r="X21" t="n">
-        <v>403.159465140448</v>
+        <v>184.1112441939122</v>
       </c>
       <c r="Y21" t="n">
-        <v>403.159465140448</v>
+        <v>184.1112441939122</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>166.0125465861799</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="C22" t="n">
-        <v>166.0125465861799</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="D22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="E22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="F22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="G22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="H22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="K22" t="n">
-        <v>20.74594372277242</v>
+        <v>20.7459437227724</v>
       </c>
       <c r="L22" t="n">
-        <v>82.47875529922219</v>
+        <v>82.47875529922217</v>
       </c>
       <c r="M22" t="n">
         <v>157.9564726222214</v>
@@ -5929,31 +5929,31 @@
         <v>319.4411870795271</v>
       </c>
       <c r="Q22" t="n">
-        <v>252.1879277620846</v>
+        <v>319.4411870795271</v>
       </c>
       <c r="R22" t="n">
-        <v>252.1879277620846</v>
+        <v>319.4411870795271</v>
       </c>
       <c r="S22" t="n">
-        <v>252.1879277620846</v>
+        <v>319.4411870795271</v>
       </c>
       <c r="T22" t="n">
-        <v>252.1879277620846</v>
+        <v>319.4411870795271</v>
       </c>
       <c r="U22" t="n">
-        <v>166.0125465861799</v>
+        <v>216.6018058334924</v>
       </c>
       <c r="V22" t="n">
-        <v>166.0125465861799</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="W22" t="n">
-        <v>166.0125465861799</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="X22" t="n">
-        <v>166.0125465861799</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.0125465861799</v>
+        <v>15.89590717384414</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>476.9504770461738</v>
+        <v>476.9504770461734</v>
       </c>
       <c r="C23" t="n">
-        <v>411.2262783594949</v>
+        <v>411.2262783594947</v>
       </c>
       <c r="D23" t="n">
-        <v>356.1988980064775</v>
+        <v>356.1988980064773</v>
       </c>
       <c r="E23" t="n">
-        <v>273.6489636619665</v>
+        <v>273.648963661966</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9013771260923</v>
+        <v>165.9013771260918</v>
       </c>
       <c r="G23" t="n">
-        <v>50.16856350228311</v>
+        <v>50.16856350228303</v>
       </c>
       <c r="H23" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I23" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J23" t="n">
-        <v>47.86977448817003</v>
+        <v>47.86977448817001</v>
       </c>
       <c r="K23" t="n">
-        <v>216.5351174699659</v>
+        <v>47.86977448817001</v>
       </c>
       <c r="L23" t="n">
-        <v>216.5351174699659</v>
+        <v>244.5816257644912</v>
       </c>
       <c r="M23" t="n">
-        <v>216.5351174699659</v>
+        <v>441.2934770408125</v>
       </c>
       <c r="N23" t="n">
-        <v>388.3644718664515</v>
+        <v>552.2408968308813</v>
       </c>
       <c r="O23" t="n">
-        <v>585.0763231427729</v>
+        <v>748.9527481072025</v>
       </c>
       <c r="P23" t="n">
-        <v>748.9527481072034</v>
+        <v>748.9527481072025</v>
       </c>
       <c r="Q23" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="R23" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="S23" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="T23" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="U23" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="V23" t="n">
-        <v>766.9707896023695</v>
+        <v>766.970789602369</v>
       </c>
       <c r="W23" t="n">
-        <v>717.4404525859884</v>
+        <v>717.4404525859879</v>
       </c>
       <c r="X23" t="n">
-        <v>647.2130125786415</v>
+        <v>647.213012578641</v>
       </c>
       <c r="Y23" t="n">
-        <v>560.3119988565627</v>
+        <v>560.3119988565622</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>264.9930422760891</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="C24" t="n">
-        <v>264.9930422760891</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="D24" t="n">
-        <v>264.9930422760891</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="E24" t="n">
-        <v>264.9930422760891</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="F24" t="n">
-        <v>264.9930422760891</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="G24" t="n">
-        <v>126.5439634870682</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="H24" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I24" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J24" t="n">
-        <v>41.24594382033391</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="K24" t="n">
-        <v>100.0162341137482</v>
+        <v>185.8440006119359</v>
       </c>
       <c r="L24" t="n">
-        <v>100.0162341137482</v>
+        <v>185.8440006119359</v>
       </c>
       <c r="M24" t="n">
-        <v>296.7280853900696</v>
+        <v>382.5558518882572</v>
       </c>
       <c r="N24" t="n">
-        <v>296.7280853900696</v>
+        <v>579.2677031645784</v>
       </c>
       <c r="O24" t="n">
-        <v>493.4399366663911</v>
+        <v>775.9795544408996</v>
       </c>
       <c r="P24" t="n">
-        <v>690.1517879427125</v>
+        <v>775.9795544408996</v>
       </c>
       <c r="Q24" t="n">
-        <v>794.7953586922079</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="R24" t="n">
-        <v>794.7953586922079</v>
+        <v>711.118834820164</v>
       </c>
       <c r="S24" t="n">
-        <v>666.404839595386</v>
+        <v>711.118834820164</v>
       </c>
       <c r="T24" t="n">
-        <v>666.404839595386</v>
+        <v>510.4129361605158</v>
       </c>
       <c r="U24" t="n">
-        <v>666.404839595386</v>
+        <v>510.4129361605158</v>
       </c>
       <c r="V24" t="n">
-        <v>666.404839595386</v>
+        <v>510.4129361605158</v>
       </c>
       <c r="W24" t="n">
-        <v>666.404839595386</v>
+        <v>510.4129361605158</v>
       </c>
       <c r="X24" t="n">
-        <v>465.6989409357375</v>
+        <v>384.8171428535604</v>
       </c>
       <c r="Y24" t="n">
-        <v>264.9930422760891</v>
+        <v>184.1112441939122</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>312.9024940840902</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="C25" t="n">
-        <v>312.9024940840902</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="D25" t="n">
-        <v>162.7858546717545</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="E25" t="n">
-        <v>162.7858546717545</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="F25" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="G25" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="H25" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="I25" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="J25" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384414</v>
       </c>
       <c r="K25" t="n">
-        <v>20.74594372277242</v>
+        <v>20.7459437227724</v>
       </c>
       <c r="L25" t="n">
-        <v>82.47875529922219</v>
+        <v>82.47875529922217</v>
       </c>
       <c r="M25" t="n">
         <v>157.9564726222214</v>
@@ -6166,31 +6166,31 @@
         <v>319.4411870795271</v>
       </c>
       <c r="Q25" t="n">
-        <v>319.4411870795271</v>
+        <v>252.1879277620846</v>
       </c>
       <c r="R25" t="n">
-        <v>312.9024940840902</v>
+        <v>252.1879277620846</v>
       </c>
       <c r="S25" t="n">
-        <v>312.9024940840902</v>
+        <v>252.1879277620846</v>
       </c>
       <c r="T25" t="n">
-        <v>312.9024940840902</v>
+        <v>252.1879277620846</v>
       </c>
       <c r="U25" t="n">
-        <v>312.9024940840902</v>
+        <v>252.1879277620846</v>
       </c>
       <c r="V25" t="n">
-        <v>312.9024940840902</v>
+        <v>252.1879277620846</v>
       </c>
       <c r="W25" t="n">
-        <v>312.9024940840902</v>
+        <v>216.6018058334924</v>
       </c>
       <c r="X25" t="n">
-        <v>312.9024940840902</v>
+        <v>216.6018058334924</v>
       </c>
       <c r="Y25" t="n">
-        <v>312.9024940840902</v>
+        <v>15.89590717384414</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>1474.852168841945</v>
       </c>
       <c r="C26" t="n">
-        <v>1256.396813742802</v>
+        <v>1256.396813742803</v>
       </c>
       <c r="D26" t="n">
         <v>1048.638276977321</v>
@@ -6212,37 +6212,37 @@
         <v>813.3571862203462</v>
       </c>
       <c r="F26" t="n">
-        <v>552.8784432720079</v>
+        <v>552.8784432720078</v>
       </c>
       <c r="G26" t="n">
         <v>284.4144732357358</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41066049483345</v>
+        <v>97.41066049483348</v>
       </c>
       <c r="I26" t="n">
         <v>55.6169964674375</v>
       </c>
       <c r="J26" t="n">
-        <v>235.1029331023913</v>
+        <v>235.1029331023915</v>
       </c>
       <c r="K26" t="n">
-        <v>551.2803454048152</v>
+        <v>551.2803454048153</v>
       </c>
       <c r="L26" t="n">
-        <v>960.3133146464273</v>
+        <v>960.3133146464274</v>
       </c>
       <c r="M26" t="n">
         <v>1415.424320284889</v>
       </c>
       <c r="N26" t="n">
-        <v>1860.880600751948</v>
+        <v>1860.880600751947</v>
       </c>
       <c r="O26" t="n">
         <v>2244.545302124367</v>
       </c>
       <c r="P26" t="n">
-        <v>2555.933796409426</v>
+        <v>2555.933796409425</v>
       </c>
       <c r="Q26" t="n">
         <v>2749.288476315058</v>
@@ -6251,7 +6251,7 @@
         <v>2780.849823371875</v>
       </c>
       <c r="S26" t="n">
-        <v>2732.225106987911</v>
+        <v>2732.225106987912</v>
       </c>
       <c r="T26" t="n">
         <v>2659.688041972994</v>
@@ -6263,13 +6263,13 @@
         <v>2375.797107047995</v>
       </c>
       <c r="W26" t="n">
-        <v>2173.53561361915</v>
+        <v>2173.535613619151</v>
       </c>
       <c r="X26" t="n">
         <v>1950.57701719934</v>
       </c>
       <c r="Y26" t="n">
-        <v>1710.944847064797</v>
+        <v>1710.944847064798</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>499.9555370672441</v>
+        <v>823.2255271774071</v>
       </c>
       <c r="C27" t="n">
-        <v>325.5025077861171</v>
+        <v>648.7724978962801</v>
       </c>
       <c r="D27" t="n">
-        <v>325.5025077861171</v>
+        <v>499.8380882350289</v>
       </c>
       <c r="E27" t="n">
-        <v>166.2650527806616</v>
+        <v>340.6006332295734</v>
       </c>
       <c r="F27" t="n">
-        <v>166.2650527806616</v>
+        <v>194.0660752564583</v>
       </c>
       <c r="G27" t="n">
-        <v>166.2650527806616</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="H27" t="n">
         <v>55.6169964674375</v>
@@ -6303,7 +6303,7 @@
         <v>55.6169964674375</v>
       </c>
       <c r="J27" t="n">
-        <v>80.96703311392724</v>
+        <v>80.96703311392726</v>
       </c>
       <c r="K27" t="n">
         <v>250.915126552019</v>
@@ -6327,28 +6327,28 @@
         <v>2001.950371853511</v>
       </c>
       <c r="R27" t="n">
-        <v>2001.950371853511</v>
+        <v>1918.273847981468</v>
       </c>
       <c r="S27" t="n">
-        <v>1833.766347352953</v>
+        <v>1750.08982348091</v>
       </c>
       <c r="T27" t="n">
-        <v>1632.715389340957</v>
+        <v>1699.546027310183</v>
       </c>
       <c r="U27" t="n">
-        <v>1404.510307039738</v>
+        <v>1471.340945008964</v>
       </c>
       <c r="V27" t="n">
-        <v>1319.865360649265</v>
+        <v>1236.188836777222</v>
       </c>
       <c r="W27" t="n">
-        <v>1065.628003921063</v>
+        <v>1132.458641890289</v>
       </c>
       <c r="X27" t="n">
-        <v>875.9311728522659</v>
+        <v>1075.114303526026</v>
       </c>
       <c r="Y27" t="n">
-        <v>668.1708740873121</v>
+        <v>991.4408641974751</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.16140348555201</v>
+        <v>98.16140348555203</v>
       </c>
       <c r="C28" t="n">
-        <v>79.73238239891434</v>
+        <v>79.73238239891435</v>
       </c>
       <c r="D28" t="n">
-        <v>79.73238239891434</v>
+        <v>79.73238239891435</v>
       </c>
       <c r="E28" t="n">
-        <v>82.27482869943883</v>
+        <v>82.27482869943884</v>
       </c>
       <c r="F28" t="n">
-        <v>85.82006047736486</v>
+        <v>85.82006047736488</v>
       </c>
       <c r="G28" t="n">
-        <v>66.87557128953442</v>
+        <v>66.87557128953443</v>
       </c>
       <c r="H28" t="n">
         <v>55.6169964674375</v>
       </c>
       <c r="I28" t="n">
-        <v>56.19512417614197</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J28" t="n">
-        <v>127.649107042892</v>
+        <v>127.0709793341875</v>
       </c>
       <c r="K28" t="n">
-        <v>151.876209247854</v>
+        <v>279.4330852037438</v>
       </c>
       <c r="L28" t="n">
         <v>361.1210901449318</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1474.852168841946</v>
+        <v>1474.852168841945</v>
       </c>
       <c r="C29" t="n">
         <v>1256.396813742803</v>
@@ -6446,43 +6446,43 @@
         <v>1048.638276977322</v>
       </c>
       <c r="E29" t="n">
-        <v>813.3571862203466</v>
+        <v>813.357186220347</v>
       </c>
       <c r="F29" t="n">
-        <v>552.8784432720083</v>
+        <v>552.8784432720087</v>
       </c>
       <c r="G29" t="n">
-        <v>284.4144732357363</v>
+        <v>284.4144732357359</v>
       </c>
       <c r="H29" t="n">
-        <v>97.41066049483345</v>
+        <v>97.41066049483344</v>
       </c>
       <c r="I29" t="n">
         <v>55.6169964674375</v>
       </c>
       <c r="J29" t="n">
-        <v>235.1029331023913</v>
+        <v>235.1029331023914</v>
       </c>
       <c r="K29" t="n">
-        <v>551.2803454048152</v>
+        <v>551.2803454048153</v>
       </c>
       <c r="L29" t="n">
-        <v>960.3133146464273</v>
+        <v>960.3133146464274</v>
       </c>
       <c r="M29" t="n">
         <v>1415.424320284889</v>
       </c>
       <c r="N29" t="n">
-        <v>1860.880600751947</v>
+        <v>1860.880600751948</v>
       </c>
       <c r="O29" t="n">
-        <v>2244.545302124366</v>
+        <v>2244.545302124367</v>
       </c>
       <c r="P29" t="n">
         <v>2555.933796409425</v>
       </c>
       <c r="Q29" t="n">
-        <v>2749.288476315057</v>
+        <v>2749.288476315058</v>
       </c>
       <c r="R29" t="n">
         <v>2780.849823371875</v>
@@ -6491,7 +6491,7 @@
         <v>2732.225106987912</v>
       </c>
       <c r="T29" t="n">
-        <v>2659.688041972994</v>
+        <v>2659.688041972995</v>
       </c>
       <c r="U29" t="n">
         <v>2556.352832550298</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>865.5383159868949</v>
+        <v>527.7565595430408</v>
       </c>
       <c r="C30" t="n">
-        <v>691.0852867057679</v>
+        <v>353.3035302619138</v>
       </c>
       <c r="D30" t="n">
-        <v>691.0852867057679</v>
+        <v>353.3035302619138</v>
       </c>
       <c r="E30" t="n">
-        <v>531.8478317003124</v>
+        <v>194.0660752564583</v>
       </c>
       <c r="F30" t="n">
-        <v>385.3132737271974</v>
+        <v>194.0660752564583</v>
       </c>
       <c r="G30" t="n">
-        <v>246.8641949381766</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="H30" t="n">
-        <v>136.2161386249525</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I30" t="n">
         <v>55.6169964674375</v>
       </c>
       <c r="J30" t="n">
-        <v>80.96703311392724</v>
+        <v>80.96703311392726</v>
       </c>
       <c r="K30" t="n">
         <v>250.915126552019</v>
@@ -6570,22 +6570,22 @@
         <v>1750.08982348091</v>
       </c>
       <c r="T30" t="n">
-        <v>1699.546027310183</v>
+        <v>1549.038865468914</v>
       </c>
       <c r="U30" t="n">
-        <v>1471.340945008964</v>
+        <v>1320.833783167695</v>
       </c>
       <c r="V30" t="n">
-        <v>1386.695998618491</v>
+        <v>1236.188836777221</v>
       </c>
       <c r="W30" t="n">
-        <v>1132.458641890289</v>
+        <v>1111.583695533596</v>
       </c>
       <c r="X30" t="n">
-        <v>1075.114303526026</v>
+        <v>903.7321953280627</v>
       </c>
       <c r="Y30" t="n">
-        <v>1017.861166602341</v>
+        <v>695.9718965631089</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.3210987534788</v>
+        <v>98.16140348555189</v>
       </c>
       <c r="C31" t="n">
-        <v>81.89207766684109</v>
+        <v>79.73238239891424</v>
       </c>
       <c r="D31" t="n">
-        <v>82.27482869943883</v>
+        <v>79.73238239891424</v>
       </c>
       <c r="E31" t="n">
-        <v>82.27482869943883</v>
+        <v>82.27482869943876</v>
       </c>
       <c r="F31" t="n">
-        <v>85.82006047736486</v>
+        <v>85.82006047736482</v>
       </c>
       <c r="G31" t="n">
-        <v>66.87557128953442</v>
+        <v>66.87557128953441</v>
       </c>
       <c r="H31" t="n">
         <v>55.6169964674375</v>
@@ -6619,52 +6619,52 @@
         <v>55.6169964674375</v>
       </c>
       <c r="J31" t="n">
-        <v>127.0709793341875</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="K31" t="n">
-        <v>131.9210158831158</v>
+        <v>60.46703301636576</v>
       </c>
       <c r="L31" t="n">
-        <v>341.1658967801935</v>
+        <v>122.1998445928155</v>
       </c>
       <c r="M31" t="n">
-        <v>416.6436141031928</v>
+        <v>289.0867381473025</v>
       </c>
       <c r="N31" t="n">
-        <v>517.8761450637622</v>
+        <v>515.7164497958352</v>
       </c>
       <c r="O31" t="n">
-        <v>574.9377978005766</v>
+        <v>572.7781025326495</v>
       </c>
       <c r="P31" t="n">
-        <v>747.7552865137912</v>
+        <v>745.5955912458642</v>
       </c>
       <c r="Q31" t="n">
-        <v>829.3524363773938</v>
+        <v>827.1927411094667</v>
       </c>
       <c r="R31" t="n">
-        <v>811.3960860554</v>
+        <v>809.2363907874729</v>
       </c>
       <c r="S31" t="n">
-        <v>739.7402981587652</v>
+        <v>737.5806028908382</v>
       </c>
       <c r="T31" t="n">
-        <v>661.0086375714263</v>
+        <v>658.8489423034994</v>
       </c>
       <c r="U31" t="n">
-        <v>522.3175426617672</v>
+        <v>520.1578473938403</v>
       </c>
       <c r="V31" t="n">
-        <v>418.1402162971495</v>
+        <v>415.9805210292226</v>
       </c>
       <c r="W31" t="n">
-        <v>279.2302081014582</v>
+        <v>277.0705128335312</v>
       </c>
       <c r="X31" t="n">
-        <v>201.7478190447101</v>
+        <v>199.5881237767832</v>
       </c>
       <c r="Y31" t="n">
-        <v>131.4624017424492</v>
+        <v>129.3027064745223</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1474.852168841945</v>
+        <v>1474.852168841946</v>
       </c>
       <c r="C32" t="n">
-        <v>1256.396813742803</v>
+        <v>1256.396813742804</v>
       </c>
       <c r="D32" t="n">
-        <v>1048.638276977321</v>
+        <v>1048.638276977323</v>
       </c>
       <c r="E32" t="n">
-        <v>813.3571862203462</v>
+        <v>813.3571862203476</v>
       </c>
       <c r="F32" t="n">
-        <v>552.8784432720079</v>
+        <v>552.8784432720092</v>
       </c>
       <c r="G32" t="n">
-        <v>284.4144732357358</v>
+        <v>284.4144732357372</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41066049483325</v>
+        <v>97.41066049483349</v>
       </c>
       <c r="I32" t="n">
         <v>55.6169964674375</v>
@@ -6701,10 +6701,10 @@
         <v>235.1029331023913</v>
       </c>
       <c r="K32" t="n">
-        <v>551.2803454048152</v>
+        <v>551.2803454048153</v>
       </c>
       <c r="L32" t="n">
-        <v>960.3133146464273</v>
+        <v>960.3133146464274</v>
       </c>
       <c r="M32" t="n">
         <v>1415.424320284889</v>
@@ -6719,7 +6719,7 @@
         <v>2555.933796409425</v>
       </c>
       <c r="Q32" t="n">
-        <v>2749.288476315057</v>
+        <v>2749.288476315058</v>
       </c>
       <c r="R32" t="n">
         <v>2780.849823371875</v>
@@ -6728,22 +6728,22 @@
         <v>2732.225106987912</v>
       </c>
       <c r="T32" t="n">
-        <v>2659.688041972994</v>
+        <v>2659.688041972995</v>
       </c>
       <c r="U32" t="n">
-        <v>2556.352832550297</v>
+        <v>2556.352832550298</v>
       </c>
       <c r="V32" t="n">
-        <v>2375.797107047995</v>
+        <v>2375.797107047997</v>
       </c>
       <c r="W32" t="n">
-        <v>2173.535613619151</v>
+        <v>2173.535613619152</v>
       </c>
       <c r="X32" t="n">
-        <v>1950.57701719934</v>
+        <v>1950.577017199342</v>
       </c>
       <c r="Y32" t="n">
-        <v>1710.944847064798</v>
+        <v>1710.944847064799</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>385.3348768858658</v>
+        <v>634.4320119881107</v>
       </c>
       <c r="C33" t="n">
-        <v>361.389009446008</v>
+        <v>610.4861445482529</v>
       </c>
       <c r="D33" t="n">
-        <v>361.389009446008</v>
+        <v>610.4861445482529</v>
       </c>
       <c r="E33" t="n">
-        <v>202.1515544405525</v>
+        <v>451.2486895427975</v>
       </c>
       <c r="F33" t="n">
-        <v>55.6169964674375</v>
+        <v>304.7141315696824</v>
       </c>
       <c r="G33" t="n">
-        <v>55.6169964674375</v>
+        <v>166.2650527806616</v>
       </c>
       <c r="H33" t="n">
         <v>55.6169964674375</v>
@@ -6777,7 +6777,7 @@
         <v>55.6169964674375</v>
       </c>
       <c r="J33" t="n">
-        <v>80.96703311392724</v>
+        <v>80.96703311392726</v>
       </c>
       <c r="K33" t="n">
         <v>250.915126552019</v>
@@ -6810,19 +6810,19 @@
         <v>1549.038865468914</v>
       </c>
       <c r="U33" t="n">
-        <v>1320.833783167695</v>
+        <v>1406.634289256071</v>
       </c>
       <c r="V33" t="n">
-        <v>1085.681674935952</v>
+        <v>1171.482181024329</v>
       </c>
       <c r="W33" t="n">
-        <v>969.1620128764205</v>
+        <v>917.244824296127</v>
       </c>
       <c r="X33" t="n">
-        <v>761.3105126708876</v>
+        <v>709.3933240905942</v>
       </c>
       <c r="Y33" t="n">
-        <v>553.5502139059338</v>
+        <v>652.1401871669095</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.77865245295428</v>
+        <v>97.77865245295446</v>
       </c>
       <c r="C34" t="n">
-        <v>79.3496313663166</v>
+        <v>79.34963136631676</v>
       </c>
       <c r="D34" t="n">
-        <v>79.73238239891434</v>
+        <v>79.73238239891447</v>
       </c>
       <c r="E34" t="n">
-        <v>82.27482869943883</v>
+        <v>82.27482869943893</v>
       </c>
       <c r="F34" t="n">
-        <v>85.82006047736486</v>
+        <v>85.82006047736493</v>
       </c>
       <c r="G34" t="n">
-        <v>66.87557128953442</v>
+        <v>66.87557128953446</v>
       </c>
       <c r="H34" t="n">
         <v>55.6169964674375</v>
@@ -6856,52 +6856,52 @@
         <v>55.6169964674375</v>
       </c>
       <c r="J34" t="n">
-        <v>55.6169964674375</v>
+        <v>80.72850220930322</v>
       </c>
       <c r="K34" t="n">
-        <v>60.46703301636576</v>
+        <v>85.57853875823147</v>
       </c>
       <c r="L34" t="n">
-        <v>269.7119139134435</v>
+        <v>294.8234196553092</v>
       </c>
       <c r="M34" t="n">
-        <v>345.1896312364427</v>
+        <v>370.3011369783084</v>
       </c>
       <c r="N34" t="n">
-        <v>571.8193428849753</v>
+        <v>596.930848626841</v>
       </c>
       <c r="O34" t="n">
-        <v>776.3930649424176</v>
+        <v>801.5045706842833</v>
       </c>
       <c r="P34" t="n">
-        <v>801.6984843350042</v>
+        <v>826.8099900768699</v>
       </c>
       <c r="Q34" t="n">
-        <v>826.8099900768693</v>
+        <v>826.8099900768699</v>
       </c>
       <c r="R34" t="n">
-        <v>808.8536397548755</v>
+        <v>808.8536397548761</v>
       </c>
       <c r="S34" t="n">
-        <v>737.1978518582407</v>
+        <v>737.1978518582413</v>
       </c>
       <c r="T34" t="n">
-        <v>658.4661912709018</v>
+        <v>658.4661912709023</v>
       </c>
       <c r="U34" t="n">
-        <v>519.7750963612427</v>
+        <v>519.7750963612431</v>
       </c>
       <c r="V34" t="n">
-        <v>415.5977699966251</v>
+        <v>415.5977699966254</v>
       </c>
       <c r="W34" t="n">
-        <v>276.6877618009337</v>
+        <v>276.687761800934</v>
       </c>
       <c r="X34" t="n">
-        <v>199.2053727441856</v>
+        <v>199.2053727441859</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.9199554419247</v>
+        <v>128.919955441925</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1099.402103283626</v>
+        <v>1099.402103283627</v>
       </c>
       <c r="C35" t="n">
-        <v>933.9068305773303</v>
+        <v>933.906830577331</v>
       </c>
       <c r="D35" t="n">
-        <v>779.1083762046956</v>
+        <v>779.1083762046962</v>
       </c>
       <c r="E35" t="n">
-        <v>596.7873678405671</v>
+        <v>596.7873678405676</v>
       </c>
       <c r="F35" t="n">
-        <v>389.2687072850754</v>
+        <v>389.2687072850757</v>
       </c>
       <c r="G35" t="n">
-        <v>173.7648196416494</v>
+        <v>173.7648196416495</v>
       </c>
       <c r="H35" t="n">
-        <v>39.72108929359334</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="I35" t="n">
-        <v>39.72108929359334</v>
+        <v>50.66529593357139</v>
       </c>
       <c r="J35" t="n">
-        <v>271.1132026817761</v>
+        <v>282.057409321754</v>
       </c>
       <c r="K35" t="n">
-        <v>439.778545663572</v>
+        <v>450.7227523035499</v>
       </c>
       <c r="L35" t="n">
-        <v>701.2994455845562</v>
+        <v>911.661898298391</v>
       </c>
       <c r="M35" t="n">
-        <v>1192.847925592774</v>
+        <v>1219.260834616225</v>
       </c>
       <c r="N35" t="n">
-        <v>1490.792136739204</v>
+        <v>1517.205045762655</v>
       </c>
       <c r="O35" t="n">
-        <v>1726.944768790995</v>
+        <v>1753.357677814446</v>
       </c>
       <c r="P35" t="n">
-        <v>1890.821193755426</v>
+        <v>1917.234102778877</v>
       </c>
       <c r="Q35" t="n">
-        <v>1986.054464679667</v>
+        <v>1981.805372454362</v>
       </c>
       <c r="R35" t="n">
-        <v>1986.054464679667</v>
+        <v>1981.805372454362</v>
       </c>
       <c r="S35" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T35" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057598</v>
       </c>
       <c r="U35" t="n">
-        <v>1916.102355027745</v>
+        <v>1916.102355027747</v>
       </c>
       <c r="V35" t="n">
-        <v>1788.50671191829</v>
+        <v>1788.506711918292</v>
       </c>
       <c r="W35" t="n">
-        <v>1639.205300882292</v>
+        <v>1639.205300882293</v>
       </c>
       <c r="X35" t="n">
-        <v>1469.206786855328</v>
+        <v>1469.206786855329</v>
       </c>
       <c r="Y35" t="n">
-        <v>1282.534699113632</v>
+        <v>1282.534699113633</v>
       </c>
     </row>
     <row r="36">
@@ -6993,28 +6993,28 @@
         <v>399.9052995439102</v>
       </c>
       <c r="C36" t="n">
-        <v>225.4522702627832</v>
+        <v>399.9052995439102</v>
       </c>
       <c r="D36" t="n">
-        <v>225.4522702627832</v>
+        <v>399.9052995439102</v>
       </c>
       <c r="E36" t="n">
-        <v>178.1701680826142</v>
+        <v>240.6678445384547</v>
       </c>
       <c r="F36" t="n">
-        <v>178.1701680826142</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="G36" t="n">
-        <v>39.72108929359334</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="H36" t="n">
-        <v>39.72108929359334</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="I36" t="n">
-        <v>39.72108929359334</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="J36" t="n">
-        <v>65.07112594008308</v>
+        <v>65.07112594008312</v>
       </c>
       <c r="K36" t="n">
         <v>235.0192193781749</v>
@@ -7023,7 +7023,7 @@
         <v>524.939800189879</v>
       </c>
       <c r="M36" t="n">
-        <v>915.2426649670829</v>
+        <v>915.2426649670831</v>
       </c>
       <c r="N36" t="n">
         <v>1331.582698579976</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.72108929359334</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="C37" t="n">
-        <v>39.72108929359334</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="D37" t="n">
-        <v>39.72108929359334</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="E37" t="n">
-        <v>39.72108929359334</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="F37" t="n">
-        <v>39.72108929359334</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="G37" t="n">
-        <v>39.72108929359334</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="H37" t="n">
-        <v>39.72108929359334</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="I37" t="n">
-        <v>39.72108929359334</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="J37" t="n">
-        <v>39.72108929359334</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="K37" t="n">
-        <v>44.57112584252161</v>
+        <v>44.57112584252162</v>
       </c>
       <c r="L37" t="n">
         <v>106.3039374189714</v>
       </c>
       <c r="M37" t="n">
-        <v>181.7816547419706</v>
+        <v>181.7816547419707</v>
       </c>
       <c r="N37" t="n">
         <v>260.8992970698753</v>
@@ -7114,31 +7114,31 @@
         <v>343.2663691992763</v>
       </c>
       <c r="Q37" t="n">
-        <v>343.2663691992763</v>
+        <v>348.9341968566191</v>
       </c>
       <c r="R37" t="n">
-        <v>348.9341968566182</v>
+        <v>348.9341968566191</v>
       </c>
       <c r="S37" t="n">
-        <v>330.23849135283</v>
+        <v>330.2384913528308</v>
       </c>
       <c r="T37" t="n">
-        <v>304.4669131583377</v>
+        <v>304.4669131583383</v>
       </c>
       <c r="U37" t="n">
-        <v>218.7359006415251</v>
+        <v>218.7359006415256</v>
       </c>
       <c r="V37" t="n">
-        <v>167.518656669754</v>
+        <v>167.5186566697544</v>
       </c>
       <c r="W37" t="n">
-        <v>81.56873086690921</v>
+        <v>81.56873086690946</v>
       </c>
       <c r="X37" t="n">
-        <v>57.04642420300766</v>
+        <v>57.0464242030078</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.72108929359334</v>
+        <v>39.72108929359337</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1099.402103283625</v>
+        <v>1099.402103283626</v>
       </c>
       <c r="C38" t="n">
-        <v>933.9068305773291</v>
+        <v>933.9068305773301</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1083762046943</v>
+        <v>779.1083762046952</v>
       </c>
       <c r="E38" t="n">
-        <v>596.7873678405658</v>
+        <v>596.7873678405666</v>
       </c>
       <c r="F38" t="n">
-        <v>389.268707285074</v>
+        <v>389.2687072850747</v>
       </c>
       <c r="G38" t="n">
-        <v>173.7648196416494</v>
+        <v>173.7648196416495</v>
       </c>
       <c r="H38" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="I38" t="n">
-        <v>50.66529593357141</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="J38" t="n">
-        <v>217.3185446021858</v>
+        <v>271.113202681776</v>
       </c>
       <c r="K38" t="n">
-        <v>385.9838875839817</v>
+        <v>439.7785456635719</v>
       </c>
       <c r="L38" t="n">
-        <v>647.5047875049659</v>
+        <v>701.299445584556</v>
       </c>
       <c r="M38" t="n">
-        <v>955.1037238227998</v>
+        <v>1008.89838190239</v>
       </c>
       <c r="N38" t="n">
-        <v>1253.04793496923</v>
+        <v>1306.84259304882</v>
       </c>
       <c r="O38" t="n">
-        <v>1688.618813094878</v>
+        <v>1692.867905320186</v>
       </c>
       <c r="P38" t="n">
-        <v>1852.495238059309</v>
+        <v>1856.744330284617</v>
       </c>
       <c r="Q38" t="n">
-        <v>1898.337848644313</v>
+        <v>1902.586940869621</v>
       </c>
       <c r="R38" t="n">
-        <v>1981.805372454359</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="S38" t="n">
-        <v>1986.054464679666</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="T38" t="n">
-        <v>1966.477482057595</v>
+        <v>1966.477482057596</v>
       </c>
       <c r="U38" t="n">
-        <v>1916.102355027744</v>
+        <v>1916.102355027746</v>
       </c>
       <c r="V38" t="n">
-        <v>1788.506711918289</v>
+        <v>1788.506711918291</v>
       </c>
       <c r="W38" t="n">
-        <v>1639.205300882291</v>
+        <v>1639.205300882292</v>
       </c>
       <c r="X38" t="n">
-        <v>1469.206786855327</v>
+        <v>1469.206786855328</v>
       </c>
       <c r="Y38" t="n">
-        <v>1282.534699113631</v>
+        <v>1282.534699113632</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>345.4931022721638</v>
+        <v>315.397798915395</v>
       </c>
       <c r="C39" t="n">
-        <v>345.4931022721638</v>
+        <v>315.397798915395</v>
       </c>
       <c r="D39" t="n">
-        <v>345.4931022721638</v>
+        <v>166.4633892541437</v>
       </c>
       <c r="E39" t="n">
-        <v>186.2556472667083</v>
+        <v>166.4633892541437</v>
       </c>
       <c r="F39" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="G39" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="H39" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="I39" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="J39" t="n">
-        <v>65.07112594008306</v>
+        <v>65.07112594008309</v>
       </c>
       <c r="K39" t="n">
         <v>235.0192193781749</v>
       </c>
       <c r="L39" t="n">
-        <v>524.9398001898788</v>
+        <v>524.939800189879</v>
       </c>
       <c r="M39" t="n">
         <v>915.2426649670831</v>
@@ -7275,28 +7275,28 @@
         <v>1986.054464679667</v>
       </c>
       <c r="R39" t="n">
-        <v>1902.377940807624</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="S39" t="n">
-        <v>1734.193916307066</v>
+        <v>1817.870440179109</v>
       </c>
       <c r="T39" t="n">
-        <v>1533.14295829507</v>
+        <v>1616.819482167113</v>
       </c>
       <c r="U39" t="n">
-        <v>1304.937875993851</v>
+        <v>1388.614399865894</v>
       </c>
       <c r="V39" t="n">
-        <v>1183.55759499092</v>
+        <v>1153.462291634151</v>
       </c>
       <c r="W39" t="n">
-        <v>929.3202382627185</v>
+        <v>899.2249349059498</v>
       </c>
       <c r="X39" t="n">
-        <v>721.4687380571856</v>
+        <v>691.373434700417</v>
       </c>
       <c r="Y39" t="n">
-        <v>513.7084392922318</v>
+        <v>483.613135935463</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="C40" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="D40" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="E40" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="F40" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="G40" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="H40" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="I40" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="J40" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="K40" t="n">
-        <v>44.57112584252158</v>
+        <v>44.57112584252161</v>
       </c>
       <c r="L40" t="n">
-        <v>106.3039374189713</v>
+        <v>106.3039374189714</v>
       </c>
       <c r="M40" t="n">
-        <v>187.4494823993128</v>
+        <v>181.7816547419706</v>
       </c>
       <c r="N40" t="n">
-        <v>266.5671247272174</v>
+        <v>260.8992970698753</v>
       </c>
       <c r="O40" t="n">
-        <v>323.6287774640318</v>
+        <v>317.9609498066897</v>
       </c>
       <c r="P40" t="n">
-        <v>348.9341968566184</v>
+        <v>348.934196856619</v>
       </c>
       <c r="Q40" t="n">
-        <v>348.9341968566184</v>
+        <v>348.934196856619</v>
       </c>
       <c r="R40" t="n">
-        <v>348.9341968566184</v>
+        <v>348.934196856619</v>
       </c>
       <c r="S40" t="n">
-        <v>330.2384913528302</v>
+        <v>330.2384913528307</v>
       </c>
       <c r="T40" t="n">
-        <v>304.4669131583378</v>
+        <v>304.4669131583382</v>
       </c>
       <c r="U40" t="n">
-        <v>218.7359006415252</v>
+        <v>218.7359006415256</v>
       </c>
       <c r="V40" t="n">
-        <v>167.5186566697541</v>
+        <v>167.5186566697544</v>
       </c>
       <c r="W40" t="n">
-        <v>81.56873086690923</v>
+        <v>81.56873086690943</v>
       </c>
       <c r="X40" t="n">
-        <v>57.04642420300766</v>
+        <v>57.04642420300777</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1099.402103283625</v>
+        <v>1099.402103283626</v>
       </c>
       <c r="C41" t="n">
-        <v>933.9068305773289</v>
+        <v>933.9068305773299</v>
       </c>
       <c r="D41" t="n">
-        <v>779.1083762046942</v>
+        <v>779.108376204695</v>
       </c>
       <c r="E41" t="n">
-        <v>596.7873678405657</v>
+        <v>596.7873678405664</v>
       </c>
       <c r="F41" t="n">
-        <v>389.2687072850739</v>
+        <v>389.2687072850745</v>
       </c>
       <c r="G41" t="n">
-        <v>173.7648196416494</v>
+        <v>173.7648196416495</v>
       </c>
       <c r="H41" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="I41" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="J41" t="n">
-        <v>71.69495660791918</v>
+        <v>71.69495660791921</v>
       </c>
       <c r="K41" t="n">
-        <v>439.778545663572</v>
+        <v>240.3602995897151</v>
       </c>
       <c r="L41" t="n">
-        <v>735.2214035403188</v>
+        <v>651.7538797302739</v>
       </c>
       <c r="M41" t="n">
-        <v>1042.820339858153</v>
+        <v>959.3528160481078</v>
       </c>
       <c r="N41" t="n">
-        <v>1340.764551004583</v>
+        <v>1257.297027194538</v>
       </c>
       <c r="O41" t="n">
-        <v>1776.335429130231</v>
+        <v>1493.449659246329</v>
       </c>
       <c r="P41" t="n">
-        <v>1940.211854094661</v>
+        <v>1856.744330284617</v>
       </c>
       <c r="Q41" t="n">
-        <v>1986.054464679666</v>
+        <v>1902.586940869621</v>
       </c>
       <c r="R41" t="n">
-        <v>1986.054464679666</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="S41" t="n">
-        <v>1986.054464679666</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="T41" t="n">
-        <v>1966.477482057595</v>
+        <v>1966.477482057596</v>
       </c>
       <c r="U41" t="n">
-        <v>1916.102355027744</v>
+        <v>1916.102355027746</v>
       </c>
       <c r="V41" t="n">
-        <v>1788.50671191829</v>
+        <v>1788.506711918291</v>
       </c>
       <c r="W41" t="n">
-        <v>1639.205300882291</v>
+        <v>1639.205300882292</v>
       </c>
       <c r="X41" t="n">
-        <v>1469.206786855327</v>
+        <v>1469.206786855328</v>
       </c>
       <c r="Y41" t="n">
-        <v>1282.534699113631</v>
+        <v>1282.534699113632</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>630.594187866515</v>
+        <v>522.3459832414271</v>
       </c>
       <c r="C42" t="n">
-        <v>456.1411585853879</v>
+        <v>347.8929539603001</v>
       </c>
       <c r="D42" t="n">
-        <v>456.1411585853879</v>
+        <v>198.9585442990488</v>
       </c>
       <c r="E42" t="n">
-        <v>296.9037035799324</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="F42" t="n">
-        <v>150.3691456068174</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="G42" t="n">
-        <v>150.3691456068174</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="H42" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="I42" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="J42" t="n">
-        <v>65.07112594008306</v>
+        <v>65.07112594008309</v>
       </c>
       <c r="K42" t="n">
         <v>235.0192193781749</v>
       </c>
       <c r="L42" t="n">
-        <v>524.9398001898788</v>
+        <v>524.939800189879</v>
       </c>
       <c r="M42" t="n">
         <v>915.2426649670831</v>
@@ -7509,31 +7509,31 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q42" t="n">
-        <v>1986.054464679666</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="R42" t="n">
-        <v>1986.054464679666</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="S42" t="n">
-        <v>1817.870440179108</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="T42" t="n">
-        <v>1616.819482167111</v>
+        <v>1785.003506667671</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.614399865893</v>
+        <v>1595.562584191926</v>
       </c>
       <c r="V42" t="n">
-        <v>1153.46229163415</v>
+        <v>1360.410475960183</v>
       </c>
       <c r="W42" t="n">
-        <v>899.2249349059484</v>
+        <v>1106.173119231982</v>
       </c>
       <c r="X42" t="n">
-        <v>691.3734347004156</v>
+        <v>898.3216190264491</v>
       </c>
       <c r="Y42" t="n">
-        <v>687.0803801695774</v>
+        <v>690.5613202614952</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.3889169509353</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="C43" t="n">
-        <v>45.3889169509353</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="D43" t="n">
-        <v>45.3889169509353</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="E43" t="n">
-        <v>45.3889169509353</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="F43" t="n">
-        <v>45.3889169509353</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="G43" t="n">
-        <v>45.3889169509353</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="H43" t="n">
-        <v>45.3889169509353</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="I43" t="n">
-        <v>45.3889169509353</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="J43" t="n">
-        <v>45.3889169509353</v>
+        <v>39.72108929359334</v>
       </c>
       <c r="K43" t="n">
-        <v>50.23895349986356</v>
+        <v>44.57112584252161</v>
       </c>
       <c r="L43" t="n">
-        <v>111.9717650763133</v>
+        <v>106.3039374189714</v>
       </c>
       <c r="M43" t="n">
-        <v>187.4494823993126</v>
+        <v>181.7816547419706</v>
       </c>
       <c r="N43" t="n">
-        <v>266.5671247272172</v>
+        <v>260.8992970698753</v>
       </c>
       <c r="O43" t="n">
-        <v>323.6287774640316</v>
+        <v>317.9609498066897</v>
       </c>
       <c r="P43" t="n">
-        <v>348.9341968566182</v>
+        <v>343.2663691992763</v>
       </c>
       <c r="Q43" t="n">
-        <v>348.9341968566182</v>
+        <v>343.2663691992763</v>
       </c>
       <c r="R43" t="n">
-        <v>348.9341968566182</v>
+        <v>348.934196856619</v>
       </c>
       <c r="S43" t="n">
-        <v>330.23849135283</v>
+        <v>330.2384913528307</v>
       </c>
       <c r="T43" t="n">
-        <v>304.4669131583377</v>
+        <v>304.4669131583382</v>
       </c>
       <c r="U43" t="n">
-        <v>218.7359006415251</v>
+        <v>218.7359006415256</v>
       </c>
       <c r="V43" t="n">
-        <v>167.518656669754</v>
+        <v>167.5186566697544</v>
       </c>
       <c r="W43" t="n">
-        <v>81.56873086690918</v>
+        <v>81.56873086690943</v>
       </c>
       <c r="X43" t="n">
-        <v>57.04642420300763</v>
+        <v>57.04642420300777</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359334</v>
       </c>
     </row>
     <row r="44">
@@ -7622,61 +7622,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1099.402103283625</v>
+        <v>1099.402103283626</v>
       </c>
       <c r="C44" t="n">
-        <v>933.9068305773288</v>
+        <v>933.9068305773302</v>
       </c>
       <c r="D44" t="n">
-        <v>779.1083762046944</v>
+        <v>779.1083762046953</v>
       </c>
       <c r="E44" t="n">
-        <v>596.7873678405663</v>
+        <v>596.7873678405667</v>
       </c>
       <c r="F44" t="n">
-        <v>389.2687072850746</v>
+        <v>389.2687072850749</v>
       </c>
       <c r="G44" t="n">
-        <v>173.7648196416494</v>
+        <v>173.7648196416495</v>
       </c>
       <c r="H44" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359335</v>
       </c>
       <c r="I44" t="n">
-        <v>39.72108929359332</v>
+        <v>50.66529593357137</v>
       </c>
       <c r="J44" t="n">
-        <v>121.0856169471553</v>
+        <v>82.63916324789724</v>
       </c>
       <c r="K44" t="n">
-        <v>289.7509599289512</v>
+        <v>450.7227523035499</v>
       </c>
       <c r="L44" t="n">
-        <v>551.2718598499354</v>
+        <v>712.2436522245341</v>
       </c>
       <c r="M44" t="n">
-        <v>1042.820339858153</v>
+        <v>1019.842588542368</v>
       </c>
       <c r="N44" t="n">
-        <v>1340.764551004583</v>
+        <v>1317.786799688799</v>
       </c>
       <c r="O44" t="n">
-        <v>1776.335429130231</v>
+        <v>1753.357677814446</v>
       </c>
       <c r="P44" t="n">
-        <v>1940.211854094661</v>
+        <v>1917.234102778877</v>
       </c>
       <c r="Q44" t="n">
-        <v>1986.054464679666</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="R44" t="n">
-        <v>1986.054464679666</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="S44" t="n">
-        <v>1986.054464679666</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="T44" t="n">
-        <v>1966.477482057595</v>
+        <v>1966.477482057596</v>
       </c>
       <c r="U44" t="n">
         <v>1916.102355027745</v>
@@ -7685,13 +7685,13 @@
         <v>1788.50671191829</v>
       </c>
       <c r="W44" t="n">
-        <v>1639.205300882291</v>
+        <v>1639.205300882292</v>
       </c>
       <c r="X44" t="n">
-        <v>1469.206786855327</v>
+        <v>1469.206786855328</v>
       </c>
       <c r="Y44" t="n">
-        <v>1282.534699113631</v>
+        <v>1282.534699113633</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>738.9943524998267</v>
+        <v>807.329620003563</v>
       </c>
       <c r="C45" t="n">
-        <v>564.5413232186997</v>
+        <v>632.876590722436</v>
       </c>
       <c r="D45" t="n">
-        <v>564.5413232186997</v>
+        <v>483.9421810611847</v>
       </c>
       <c r="E45" t="n">
-        <v>405.3038682132442</v>
+        <v>324.7047260557292</v>
       </c>
       <c r="F45" t="n">
-        <v>258.7693102401291</v>
+        <v>178.1701680826142</v>
       </c>
       <c r="G45" t="n">
-        <v>120.3202314511083</v>
+        <v>39.72108929359335</v>
       </c>
       <c r="H45" t="n">
-        <v>120.3202314511083</v>
+        <v>39.72108929359335</v>
       </c>
       <c r="I45" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359335</v>
       </c>
       <c r="J45" t="n">
-        <v>65.07112594008306</v>
+        <v>65.07112594008322</v>
       </c>
       <c r="K45" t="n">
-        <v>235.0192193781749</v>
+        <v>235.0192193781752</v>
       </c>
       <c r="L45" t="n">
-        <v>524.9398001898776</v>
+        <v>524.9398001898792</v>
       </c>
       <c r="M45" t="n">
-        <v>915.2426649670817</v>
+        <v>915.2426649670834</v>
       </c>
       <c r="N45" t="n">
-        <v>1331.582698579975</v>
+        <v>1331.582698579977</v>
       </c>
       <c r="O45" t="n">
-        <v>1646.036812456931</v>
+        <v>1646.036812456933</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.41089393017</v>
+        <v>1881.410893930172</v>
       </c>
       <c r="Q45" t="n">
-        <v>1986.054464679666</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="R45" t="n">
-        <v>1986.054464679666</v>
+        <v>1986.054464679667</v>
       </c>
       <c r="S45" t="n">
-        <v>1986.054464679666</v>
+        <v>1817.870440179109</v>
       </c>
       <c r="T45" t="n">
-        <v>1785.00350666767</v>
+        <v>1616.819482167113</v>
       </c>
       <c r="U45" t="n">
-        <v>1556.798424366451</v>
+        <v>1592.08164410001</v>
       </c>
       <c r="V45" t="n">
-        <v>1525.113560368824</v>
+        <v>1356.929535868268</v>
       </c>
       <c r="W45" t="n">
-        <v>1322.821488490381</v>
+        <v>1102.692179140066</v>
       </c>
       <c r="X45" t="n">
-        <v>1114.969988284849</v>
+        <v>894.8406789345331</v>
       </c>
       <c r="Y45" t="n">
-        <v>907.2096895198947</v>
+        <v>807.329620003563</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359335</v>
       </c>
       <c r="C46" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359335</v>
       </c>
       <c r="D46" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359335</v>
       </c>
       <c r="E46" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359335</v>
       </c>
       <c r="F46" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359335</v>
       </c>
       <c r="G46" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359335</v>
       </c>
       <c r="H46" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359335</v>
       </c>
       <c r="I46" t="n">
-        <v>45.3889169509353</v>
+        <v>39.72108929359335</v>
       </c>
       <c r="J46" t="n">
-        <v>45.3889169509353</v>
+        <v>39.72108929359335</v>
       </c>
       <c r="K46" t="n">
-        <v>50.23895349986356</v>
+        <v>44.57112584252161</v>
       </c>
       <c r="L46" t="n">
-        <v>111.9717650763133</v>
+        <v>106.3039374189714</v>
       </c>
       <c r="M46" t="n">
-        <v>187.4494823993126</v>
+        <v>181.7816547419706</v>
       </c>
       <c r="N46" t="n">
-        <v>266.5671247272172</v>
+        <v>260.8992970698753</v>
       </c>
       <c r="O46" t="n">
-        <v>323.6287774640316</v>
+        <v>317.9609498066897</v>
       </c>
       <c r="P46" t="n">
-        <v>348.9341968566182</v>
+        <v>348.9341968566191</v>
       </c>
       <c r="Q46" t="n">
-        <v>348.9341968566182</v>
+        <v>348.9341968566191</v>
       </c>
       <c r="R46" t="n">
-        <v>348.9341968566182</v>
+        <v>348.9341968566191</v>
       </c>
       <c r="S46" t="n">
-        <v>330.23849135283</v>
+        <v>330.2384913528307</v>
       </c>
       <c r="T46" t="n">
-        <v>304.4669131583377</v>
+        <v>304.4669131583383</v>
       </c>
       <c r="U46" t="n">
-        <v>218.7359006415251</v>
+        <v>218.7359006415256</v>
       </c>
       <c r="V46" t="n">
-        <v>167.518656669754</v>
+        <v>167.5186566697544</v>
       </c>
       <c r="W46" t="n">
-        <v>81.56873086690918</v>
+        <v>81.56873086690945</v>
       </c>
       <c r="X46" t="n">
-        <v>57.04642420300763</v>
+        <v>57.04642420300778</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.72108929359332</v>
+        <v>39.72108929359335</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>136.7997795010375</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>153.7763792562194</v>
       </c>
       <c r="L11" t="n">
-        <v>174.6705214031619</v>
+        <v>352.1975290507909</v>
       </c>
       <c r="M11" t="n">
-        <v>337.5063768852442</v>
+        <v>138.8075372121922</v>
       </c>
       <c r="N11" t="n">
-        <v>335.092015452278</v>
+        <v>335.0920154522778</v>
       </c>
       <c r="O11" t="n">
-        <v>142.2621690892191</v>
+        <v>340.9610087622708</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.0093234023244</v>
+        <v>191.1481847406765</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>100.4849377176919</v>
       </c>
       <c r="K12" t="n">
-        <v>152.1644257553286</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>276.6901134495374</v>
+        <v>276.6901134495372</v>
       </c>
       <c r="M12" t="n">
-        <v>71.459745793228</v>
+        <v>270.1585854662798</v>
       </c>
       <c r="N12" t="n">
-        <v>257.4957255187336</v>
+        <v>58.79688584568162</v>
       </c>
       <c r="O12" t="n">
-        <v>274.9307408922499</v>
+        <v>188.2360272577164</v>
       </c>
       <c r="P12" t="n">
         <v>80.7111711922206</v>
@@ -8927,25 +8927,25 @@
         <v>136.7997795010375</v>
       </c>
       <c r="K14" t="n">
-        <v>153.7763792562194</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>352.1975290507911</v>
+        <v>206.9673570741977</v>
       </c>
       <c r="M14" t="n">
-        <v>138.8075372121922</v>
+        <v>337.5063768852439</v>
       </c>
       <c r="N14" t="n">
-        <v>335.092015452278</v>
+        <v>136.3931757792261</v>
       </c>
       <c r="O14" t="n">
-        <v>340.961008762271</v>
+        <v>340.9610087622708</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>191.1481847406767</v>
+        <v>166.0093234023244</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,25 +9006,25 @@
         <v>100.4849377176919</v>
       </c>
       <c r="K15" t="n">
-        <v>92.80049616602122</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>276.6901134495374</v>
+        <v>77.99127377648547</v>
       </c>
       <c r="M15" t="n">
-        <v>270.15858546628</v>
+        <v>270.1585854662798</v>
       </c>
       <c r="N15" t="n">
-        <v>58.79688584568162</v>
+        <v>257.4957255187334</v>
       </c>
       <c r="O15" t="n">
-        <v>274.9307408922499</v>
+        <v>95.23776409930637</v>
       </c>
       <c r="P15" t="n">
-        <v>165.6811984042448</v>
+        <v>279.4100108652723</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>104.3767112212074</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,22 +9167,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>293.8965965338954</v>
+        <v>153.4986893777392</v>
       </c>
       <c r="M17" t="n">
-        <v>138.8075372121922</v>
+        <v>337.5063768852439</v>
       </c>
       <c r="N17" t="n">
-        <v>335.092015452278</v>
+        <v>136.3931757792261</v>
       </c>
       <c r="O17" t="n">
-        <v>340.961008762271</v>
+        <v>340.9610087622708</v>
       </c>
       <c r="P17" t="n">
-        <v>156.266965783169</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>187.1811554277468</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>100.4849377176919</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>77.99127377648547</v>
+        <v>96.99713665659388</v>
       </c>
       <c r="M18" t="n">
-        <v>157.8577742090299</v>
+        <v>270.1585854662798</v>
       </c>
       <c r="N18" t="n">
         <v>58.79688584568162</v>
       </c>
       <c r="O18" t="n">
-        <v>274.9307408922499</v>
+        <v>274.9307408922497</v>
       </c>
       <c r="P18" t="n">
-        <v>279.4100108652726</v>
+        <v>279.4100108652723</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>104.3767112212074</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>143.9627799399163</v>
+        <v>157.101349912758</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>153.4986893777392</v>
+        <v>352.1975290507909</v>
       </c>
       <c r="M20" t="n">
-        <v>337.5063768852442</v>
+        <v>337.5063768852439</v>
       </c>
       <c r="N20" t="n">
-        <v>335.092015452278</v>
+        <v>136.3931757792261</v>
       </c>
       <c r="O20" t="n">
-        <v>142.2621690892191</v>
+        <v>340.9610087622708</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>156.266965783169</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>166.0093234023244</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,25 +9480,25 @@
         <v>100.4849377176919</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>92.80049616602122</v>
       </c>
       <c r="L21" t="n">
-        <v>77.99127377648547</v>
+        <v>276.6901134495372</v>
       </c>
       <c r="M21" t="n">
-        <v>183.4638718317468</v>
+        <v>270.1585854662798</v>
       </c>
       <c r="N21" t="n">
-        <v>58.79688584568162</v>
+        <v>257.4957255187334</v>
       </c>
       <c r="O21" t="n">
-        <v>274.9307408922499</v>
+        <v>266.9025049458637</v>
       </c>
       <c r="P21" t="n">
-        <v>279.4100108652726</v>
+        <v>80.7111711922206</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>104.3767112212074</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>153.7763792562194</v>
       </c>
       <c r="L23" t="n">
-        <v>153.4986893777392</v>
+        <v>352.1975290507909</v>
       </c>
       <c r="M23" t="n">
-        <v>138.8075372121922</v>
+        <v>337.5063768852439</v>
       </c>
       <c r="N23" t="n">
-        <v>309.9581802201205</v>
+        <v>248.4612765772754</v>
       </c>
       <c r="O23" t="n">
-        <v>340.961008762271</v>
+        <v>340.9610087622708</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>156.266965783169</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>100.4849377176919</v>
       </c>
       <c r="K24" t="n">
-        <v>152.1644257553286</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>77.99127377648547</v>
       </c>
       <c r="M24" t="n">
-        <v>270.15858546628</v>
+        <v>270.1585854662798</v>
       </c>
       <c r="N24" t="n">
-        <v>58.79688584568162</v>
+        <v>257.4957255187334</v>
       </c>
       <c r="O24" t="n">
-        <v>274.9307408922499</v>
+        <v>274.9307408922497</v>
       </c>
       <c r="P24" t="n">
-        <v>279.4100108652726</v>
+        <v>80.7111711922206</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>123.3825741013158</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>210.0772877358492</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358478</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034579</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.403679538658338</v>
+        <v>66.07295147348064</v>
       </c>
       <c r="C11" t="n">
-        <v>186.6415693192373</v>
+        <v>186.6415693192372</v>
       </c>
       <c r="D11" t="n">
-        <v>176.0517191689127</v>
+        <v>176.0517191689126</v>
       </c>
       <c r="E11" t="n">
-        <v>203.2990476204915</v>
+        <v>203.2990476204914</v>
       </c>
       <c r="F11" t="n">
-        <v>228.2447232899412</v>
+        <v>228.2447232899411</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1500981069955</v>
+        <v>37.45125843394365</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9152216931344</v>
+        <v>155.5045423845797</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11.74649515820817</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>18.50923699120968</v>
+        <v>18.50923699120959</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>42.18246213585439</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>149.1209360183645</v>
       </c>
       <c r="W11" t="n">
-        <v>170.6096462656427</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>207.6066162042833</v>
+        <v>207.6066162042832</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.1025192117103</v>
+        <v>204.1025192117102</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>176.0517191689126</v>
       </c>
       <c r="E14" t="n">
-        <v>203.2990476204915</v>
+        <v>203.2990476204914</v>
       </c>
       <c r="F14" t="n">
-        <v>228.2447232899412</v>
+        <v>228.2447232899411</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1500981069955</v>
+        <v>62.59365479782699</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>155.5045423845797</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>11.74649515820817</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>42.18246213585448</v>
+        <v>42.18246213585439</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>149.1209360183646</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>20.62537738416714</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>191.0997782266988</v>
+        <v>191.0997782266987</v>
       </c>
       <c r="Y14" t="n">
-        <v>207.6066162042833</v>
+        <v>207.6066162042832</v>
       </c>
     </row>
     <row r="15">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-7.208572136196053e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>722739.3818734839</v>
+        <v>722739.3818734838</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>722739.3818734839</v>
+        <v>722739.3818734838</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>823040.701101195</v>
+        <v>823040.7011011947</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>823040.7011011948</v>
+        <v>823040.7011011947</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>877575.7344767622</v>
+        <v>877575.7344767624</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453345</v>
+        <v>737348.7048453344</v>
       </c>
       <c r="C2" t="n">
         <v>737348.7048453345</v>
       </c>
       <c r="D2" t="n">
-        <v>737348.7048453345</v>
+        <v>737348.7048453349</v>
       </c>
       <c r="E2" t="n">
         <v>632736.1960485143</v>
       </c>
       <c r="F2" t="n">
-        <v>632736.1960485147</v>
+        <v>632736.196048514</v>
       </c>
       <c r="G2" t="n">
-        <v>738937.592877856</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="H2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="I2" t="n">
         <v>738937.5928778559</v>
       </c>
       <c r="J2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="K2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="L2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="M2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="N2" t="n">
         <v>738937.5928778548</v>
       </c>
       <c r="O2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="P2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778548</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97259.69009554021</v>
+        <v>97259.69009554019</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151851.7906719067</v>
+        <v>151851.7906719068</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97259.69009554021</v>
+        <v>97259.69009554015</v>
       </c>
       <c r="M3" t="n">
-        <v>41944.38525513447</v>
+        <v>41944.3852551344</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26436,13 +26436,13 @@
         <v>407016.1489321863</v>
       </c>
       <c r="I4" t="n">
-        <v>407016.1489321863</v>
+        <v>407016.1489321864</v>
       </c>
       <c r="J4" t="n">
-        <v>402100.501383587</v>
+        <v>402100.5013835871</v>
       </c>
       <c r="K4" t="n">
-        <v>402100.501383587</v>
+        <v>402100.5013835871</v>
       </c>
       <c r="L4" t="n">
         <v>402100.501383587</v>
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29925.21762447105</v>
+        <v>29925.21762447104</v>
       </c>
       <c r="F5" t="n">
-        <v>29925.21762447105</v>
+        <v>29925.21762447104</v>
       </c>
       <c r="G5" t="n">
-        <v>40145.87373277351</v>
+        <v>40145.8737327735</v>
       </c>
       <c r="H5" t="n">
-        <v>40145.87373277351</v>
+        <v>40145.8737327735</v>
       </c>
       <c r="I5" t="n">
-        <v>40145.87373277351</v>
+        <v>40145.8737327735</v>
       </c>
       <c r="J5" t="n">
         <v>57622.34556334944</v>
@@ -26497,19 +26497,19 @@
         <v>57622.34556334944</v>
       </c>
       <c r="L5" t="n">
-        <v>57622.34556334944</v>
+        <v>57622.34556334943</v>
       </c>
       <c r="M5" t="n">
         <v>49949.23426624526</v>
       </c>
       <c r="N5" t="n">
-        <v>49949.23426624523</v>
+        <v>49949.23426624524</v>
       </c>
       <c r="O5" t="n">
         <v>49949.23426624524</v>
       </c>
       <c r="P5" t="n">
-        <v>49949.23426624524</v>
+        <v>49949.23426624525</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251321.1142963693</v>
+        <v>251316.7007185011</v>
       </c>
       <c r="C6" t="n">
-        <v>251321.1142963693</v>
+        <v>251316.7007185012</v>
       </c>
       <c r="D6" t="n">
-        <v>251321.1142963693</v>
+        <v>251316.7007185016</v>
       </c>
       <c r="E6" t="n">
-        <v>-43321.69688754504</v>
+        <v>-43616.70076762654</v>
       </c>
       <c r="F6" t="n">
-        <v>263093.8303918905</v>
+        <v>262798.8265118083</v>
       </c>
       <c r="G6" t="n">
-        <v>194515.8801173559</v>
+        <v>194515.8801173556</v>
       </c>
       <c r="H6" t="n">
-        <v>291775.5702128958</v>
+        <v>291775.570212896</v>
       </c>
       <c r="I6" t="n">
         <v>291775.570212896</v>
       </c>
       <c r="J6" t="n">
-        <v>127362.9552590112</v>
+        <v>127362.9552590115</v>
       </c>
       <c r="K6" t="n">
-        <v>279214.745930918</v>
+        <v>279214.7459309181</v>
       </c>
       <c r="L6" t="n">
-        <v>181955.055835378</v>
+        <v>181955.0558353781</v>
       </c>
       <c r="M6" t="n">
-        <v>245894.7654182269</v>
+        <v>245894.7654182264</v>
       </c>
       <c r="N6" t="n">
-        <v>287839.1506733611</v>
+        <v>287839.150673361</v>
       </c>
       <c r="O6" t="n">
-        <v>265897.1685906161</v>
+        <v>265897.1685906163</v>
       </c>
       <c r="P6" t="n">
-        <v>287839.1506733612</v>
+        <v>287839.150673361</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="F2" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="G2" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="H2" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="I2" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="J2" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="K2" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="L2" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="M2" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="N2" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="O2" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="P2" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="F4" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="G4" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="H4" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="I4" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="J4" t="n">
-        <v>695.2124558429687</v>
+        <v>695.2124558429688</v>
       </c>
       <c r="K4" t="n">
-        <v>695.2124558429687</v>
+        <v>695.2124558429688</v>
       </c>
       <c r="L4" t="n">
-        <v>695.2124558429687</v>
+        <v>695.2124558429688</v>
       </c>
       <c r="M4" t="n">
+        <v>496.5136161699171</v>
+      </c>
+      <c r="N4" t="n">
         <v>496.5136161699168</v>
       </c>
-      <c r="N4" t="n">
-        <v>496.5136161699165</v>
-      </c>
       <c r="O4" t="n">
-        <v>496.5136161699165</v>
+        <v>496.5136161699168</v>
       </c>
       <c r="P4" t="n">
-        <v>496.5136161699165</v>
+        <v>496.5136161699169</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>121.5746126194253</v>
+        <v>121.5746126194252</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.42747760343127</v>
+        <v>27.4274776034313</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>121.5746126194253</v>
+        <v>121.5746126194252</v>
       </c>
       <c r="M2" t="n">
-        <v>52.43048156891808</v>
+        <v>52.430481568918</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>496.5136161699167</v>
+        <v>496.513616169917</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>121.5746126194253</v>
+        <v>121.5746126194252</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.42747760343127</v>
+        <v>27.4274776034313</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="C11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="D11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="E11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="F11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="G11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="H11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="I11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>117.1219416806167</v>
       </c>
       <c r="S11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="T11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="U11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="V11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="W11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="X11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
     </row>
     <row r="12">
@@ -28184,10 +28184,10 @@
         <v>137.0645880011306</v>
       </c>
       <c r="H12" t="n">
-        <v>100.1280046472258</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>79.79315073593985</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.83975863332245</v>
       </c>
       <c r="S12" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3416087588241972</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="U12" t="n">
-        <v>178.6313224517703</v>
+        <v>27.22419180515465</v>
       </c>
       <c r="V12" t="n">
-        <v>178.6313224517703</v>
+        <v>34.10174747637353</v>
       </c>
       <c r="W12" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="X12" t="n">
-        <v>178.6313224517703</v>
+        <v>119.0865518167437</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.983856104252396</v>
+        <v>178.6313224517704</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -28266,10 +28266,10 @@
         <v>160.1480792967325</v>
       </c>
       <c r="I13" t="n">
-        <v>148.4181228403268</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="J13" t="n">
-        <v>76.82634995341206</v>
+        <v>104.3621184252665</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28278,43 +28278,43 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>28.73875720523836</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>141.0608066055627</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.58072672426808</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="R13" t="n">
         <v>166.7788770416304</v>
       </c>
       <c r="S13" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="T13" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="U13" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="V13" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="W13" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="X13" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="C14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="D14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="E14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="F14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="G14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="H14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="I14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>117.1219416806167</v>
       </c>
       <c r="S14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="T14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="U14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="V14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="W14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="X14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -28412,7 +28412,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>152.0414942069668</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -28457,22 +28457,22 @@
         <v>166.5021842555528</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3416087588241972</v>
+        <v>0.3416087588244352</v>
       </c>
       <c r="U15" t="n">
-        <v>178.6313224517703</v>
+        <v>27.22419180515465</v>
       </c>
       <c r="V15" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="W15" t="n">
-        <v>178.6313224517703</v>
+        <v>157.9016832000846</v>
       </c>
       <c r="X15" t="n">
-        <v>7.074145530425511</v>
+        <v>7.074145530425739</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -28518,13 +28518,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>28.73875720523837</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>141.0608066055627</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>169.7995638108002</v>
       </c>
       <c r="Q16" t="n">
         <v>66.58072672426808</v>
@@ -28533,25 +28533,25 @@
         <v>166.7788770416304</v>
       </c>
       <c r="S16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="T16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="U16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="V16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="W16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="X16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.6313224517703</v>
+        <v>178.6313224517704</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="C17" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="D17" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="E17" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="F17" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="G17" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="H17" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="I17" t="n">
         <v>190.3778176099785</v>
@@ -28621,16 +28621,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V17" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="W17" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="X17" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="Y17" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
     </row>
     <row r="18">
@@ -28643,22 +28643,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>71.66174703301232</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5415757500918</v>
+        <v>101.0298220216207</v>
       </c>
       <c r="I18" t="n">
         <v>79.79315073593985</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.83975863332245</v>
       </c>
       <c r="S18" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>199.0404484318762</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9230314782064</v>
+        <v>27.22419180515466</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>52.99614348786787</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>6.983856104252624</v>
       </c>
     </row>
     <row r="19">
@@ -28764,16 +28764,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.58072672426808</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>166.7788770416304</v>
       </c>
       <c r="S19" t="n">
-        <v>21.24248056747297</v>
+        <v>219.9413202405249</v>
       </c>
       <c r="T19" t="n">
-        <v>226.9464342043221</v>
+        <v>191.7161734950158</v>
       </c>
       <c r="U19" t="n">
         <v>286.3062741834191</v>
@@ -28785,10 +28785,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>123.898667955463</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>19.88581367904305</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="C20" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="D20" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="E20" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="F20" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="G20" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="H20" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="I20" t="n">
         <v>190.3778176099785</v>
@@ -28858,16 +28858,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V20" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="W20" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="X20" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
     </row>
     <row r="21">
@@ -28892,13 +28892,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H21" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>79.79315073593985</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,22 +28928,22 @@
         <v>82.83975863332245</v>
       </c>
       <c r="S21" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0404484318762</v>
+        <v>0.3416087588244352</v>
       </c>
       <c r="U21" t="n">
-        <v>36.90233653501613</v>
+        <v>27.22419180515465</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>52.99614348786764</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>165.095575451822</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -28962,7 +28962,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>66.58072672426808</v>
       </c>
       <c r="R22" t="n">
         <v>166.7788770416304</v>
@@ -29013,10 +29013,10 @@
         <v>226.9464342043221</v>
       </c>
       <c r="U22" t="n">
-        <v>200.9926468192734</v>
+        <v>184.4952867498447</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>53.43880365077626</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="C23" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="D23" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="E23" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="F23" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="G23" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="H23" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="I23" t="n">
         <v>190.3778176099785</v>
@@ -29095,16 +29095,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V23" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="W23" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="X23" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.2059350711955</v>
+        <v>300.2059350711956</v>
       </c>
     </row>
     <row r="24">
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -29129,10 +29129,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I24" t="n">
         <v>79.79315073593985</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.83975863332245</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>39.39557034969911</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0404484318762</v>
+        <v>0.3416087588244352</v>
       </c>
       <c r="U24" t="n">
         <v>225.9230314782064</v>
@@ -29180,10 +29180,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>7.074145530425511</v>
+        <v>81.43314982959171</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.983856104252396</v>
+        <v>6.983856104252624</v>
       </c>
     </row>
     <row r="25">
@@ -29199,13 +29199,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.7571345188087</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.58072672426808</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>160.3055709761479</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S25" t="n">
         <v>219.9413202405249</v>
@@ -29256,13 +29256,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>251.2927376272847</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>19.88581367904305</v>
       </c>
     </row>
     <row r="26">
@@ -29320,7 +29320,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="R26" t="n">
-        <v>149.0020902228556</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="S26" t="n">
         <v>149.0020902228565</v>
@@ -29357,19 +29357,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I27" t="n">
         <v>79.79315073593985</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.83975863332245</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
       <c r="X27" t="n">
-        <v>17.97312244536835</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>122.8459908420393</v>
       </c>
     </row>
     <row r="28">
@@ -29451,16 +29451,16 @@
         <v>149.0020902228565</v>
       </c>
       <c r="I28" t="n">
-        <v>149.0020902228565</v>
+        <v>148.4181228403268</v>
       </c>
       <c r="J28" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="K28" t="n">
-        <v>19.57279359195331</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="L28" t="n">
-        <v>149.0020902228565</v>
+        <v>20.15676097448307</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="C29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="D29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="E29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="F29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="G29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="H29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="I29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="J29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="K29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="L29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="M29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="N29" t="n">
-        <v>149.0020902228559</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="O29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228562</v>
       </c>
       <c r="P29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="Q29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="R29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="S29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="T29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="U29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="V29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="W29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="X29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="Y29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15.73356154057572</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29600,16 +29600,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>79.79315073593985</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29642,22 +29642,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>128.33589332973</v>
       </c>
       <c r="X30" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="C31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0020902228565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="F31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="G31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="H31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="I31" t="n">
         <v>148.4181228403268</v>
       </c>
       <c r="J31" t="n">
-        <v>149.0020902228565</v>
+        <v>76.82634995341206</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.332501243927</v>
       </c>
       <c r="N31" t="n">
-        <v>22.33827134612611</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="Q31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="R31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="S31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="T31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="U31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="V31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="W31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="X31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
     </row>
     <row r="32">
@@ -29773,7 +29773,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="K32" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228567</v>
       </c>
       <c r="L32" t="n">
         <v>149.0020902228565</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="C33" t="n">
         <v>149.0020902228565</v>
@@ -29840,10 +29840,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>79.79315073593985</v>
@@ -29882,19 +29882,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>84.94250102749245</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>136.3405177219831</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
     </row>
     <row r="34">
@@ -29928,7 +29928,7 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J34" t="n">
-        <v>76.82634995341206</v>
+        <v>102.1915072684279</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>91.94588403928336</v>
+        <v>66.58072672426808</v>
       </c>
       <c r="R34" t="n">
         <v>149.0020902228565</v>
@@ -29983,40 +29983,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="C35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="D35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="E35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="F35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="G35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="H35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="I35" t="n">
-        <v>190.3778176099785</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="J35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="M35" t="n">
-        <v>185.8076198892765</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30028,31 +30028,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>49.88955589821892</v>
+        <v>18.91783746513178</v>
       </c>
       <c r="R35" t="n">
         <v>117.1219416806167</v>
       </c>
       <c r="S35" t="n">
-        <v>197.14055944298</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y35" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="36">
@@ -30065,25 +30065,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>110.8357992970336</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>25.92507543691103</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H36" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I36" t="n">
-        <v>79.79315073593985</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.58072672426808</v>
+        <v>72.30580516602853</v>
       </c>
       <c r="R37" t="n">
-        <v>172.5039554833899</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S37" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T37" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U37" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V37" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W37" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y37" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="38">
@@ -30220,31 +30220,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="C38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="D38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="E38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="F38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="G38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="H38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="I38" t="n">
-        <v>201.4325717917746</v>
+        <v>190.3778176099785</v>
       </c>
       <c r="J38" t="n">
-        <v>136.039779145746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30259,7 +30259,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>201.4325717917746</v>
+        <v>151.3865456763381</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="S38" t="n">
-        <v>201.4325717917746</v>
+        <v>197.14055944298</v>
       </c>
       <c r="T38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y38" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="39">
@@ -30305,13 +30305,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>19.59433543243898</v>
       </c>
       <c r="G39" t="n">
         <v>137.0645880011306</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.83975863332245</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>112.6341089565238</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.725078441759806</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.725078441760328</v>
       </c>
       <c r="Q40" t="n">
         <v>66.58072672426808</v>
@@ -30429,25 +30429,25 @@
         <v>166.7788770416304</v>
       </c>
       <c r="S40" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T40" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U40" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V40" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W40" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="C41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="D41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="E41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="F41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="G41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="H41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="I41" t="n">
         <v>190.3778176099785</v>
@@ -30484,10 +30484,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>201.4325717917746</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>34.26460399571977</v>
+        <v>151.386545676338</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30496,37 +30496,37 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>201.4325717917746</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>117.1219416806167</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="S41" t="n">
         <v>197.14055944298</v>
       </c>
       <c r="T41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y41" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="42">
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>110.6118532698355</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I42" t="n">
         <v>79.79315073593985</v>
@@ -30587,13 +30587,13 @@
         <v>82.83975863332245</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>38.37651822721898</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>201.4325717917746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.5570586236969</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -30663,28 +30663,28 @@
         <v>66.58072672426808</v>
       </c>
       <c r="R43" t="n">
-        <v>166.7788770416304</v>
+        <v>172.5039554833907</v>
       </c>
       <c r="S43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y43" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="44">
@@ -30694,52 +30694,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="C44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="D44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="E44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="F44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="G44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="H44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="I44" t="n">
-        <v>190.3778176099785</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="J44" t="n">
-        <v>49.88955589821833</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>185.8076198892762</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>23.20984981392544</v>
       </c>
       <c r="R44" t="n">
         <v>117.1219416806167</v>
@@ -30748,22 +30748,22 @@
         <v>197.14055944298</v>
       </c>
       <c r="T44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y44" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
     <row r="45">
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>109.5415757500918</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>79.79315073593985</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,25 +30824,25 @@
         <v>82.83975863332245</v>
       </c>
       <c r="S45" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V45" t="n">
-        <v>201.4325717917746</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>51.42583200126145</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>119.046747435644</v>
       </c>
     </row>
     <row r="46">
@@ -30873,7 +30873,7 @@
         <v>160.1480792967325</v>
       </c>
       <c r="I46" t="n">
-        <v>154.1432012820863</v>
+        <v>148.4181228403268</v>
       </c>
       <c r="J46" t="n">
         <v>76.82634995341206</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.725078441760388</v>
       </c>
       <c r="Q46" t="n">
         <v>66.58072672426808</v>
@@ -30903,25 +30903,25 @@
         <v>166.7788770416304</v>
       </c>
       <c r="S46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="U46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="V46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y46" t="n">
-        <v>201.4325717917746</v>
+        <v>201.4325717917745</v>
       </c>
     </row>
   </sheetData>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>32.29683567103623</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>170.3690333149453</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>21.17183202542277</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="M11" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="P11" t="n">
         <v>165.5317423883137</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>25.1388613383521</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>25.60609762271692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>59.36392958930734</v>
+        <v>171.6647408465574</v>
       </c>
       <c r="L12" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="N12" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>198.698839673052</v>
+        <v>112.0041260385184</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35562,10 +35562,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>30.2131996114436</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>27.5357684718544</v>
       </c>
       <c r="K13" t="n">
         <v>4.899026817099255</v>
@@ -35574,19 +35574,19 @@
         <v>62.35637532974724</v>
       </c>
       <c r="M13" t="n">
-        <v>104.9788757133184</v>
+        <v>76.24011850808006</v>
       </c>
       <c r="N13" t="n">
         <v>79.9168104322269</v>
       </c>
       <c r="O13" t="n">
-        <v>198.698839673052</v>
+        <v>57.63803306748929</v>
       </c>
       <c r="P13" t="n">
         <v>25.56102968948143</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>112.0505957275023</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>170.3690333149453</v>
       </c>
       <c r="L14" t="n">
-        <v>198.698839673052</v>
+        <v>53.46866769645857</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="N14" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="P14" t="n">
         <v>165.5317423883137</v>
       </c>
       <c r="Q14" t="n">
-        <v>25.13886133835232</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>171.6647408465574</v>
       </c>
       <c r="L15" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="O15" t="n">
-        <v>198.698839673052</v>
+        <v>19.00586288010841</v>
       </c>
       <c r="P15" t="n">
-        <v>84.97002721202422</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.7005765146417</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,13 +35814,13 @@
         <v>76.24011850808006</v>
       </c>
       <c r="N16" t="n">
-        <v>108.6555676374653</v>
+        <v>79.9168104322269</v>
       </c>
       <c r="O16" t="n">
-        <v>198.698839673052</v>
+        <v>57.63803306748929</v>
       </c>
       <c r="P16" t="n">
-        <v>25.56102968948143</v>
+        <v>195.3605935002817</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>170.3690333149453</v>
       </c>
       <c r="L17" t="n">
-        <v>140.3979071561562</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="N17" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.30566725758027</v>
+        <v>21.17183202542239</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25.60609762271692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>171.6647408465574</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>19.00586288010841</v>
       </c>
       <c r="M18" t="n">
-        <v>86.39802841580193</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="P18" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.7005765146417</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>7.163000438878783</v>
+        <v>20.30157041172046</v>
       </c>
       <c r="K20" t="n">
         <v>170.3690333149453</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="M20" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="N20" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="P20" t="n">
-        <v>165.5317423883137</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.30566725758027</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>171.6647408465574</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="M21" t="n">
-        <v>112.0041260385188</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="O21" t="n">
-        <v>198.698839673052</v>
+        <v>190.6706037266657</v>
       </c>
       <c r="P21" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.7005765146417</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>32.29683567103623</v>
       </c>
       <c r="K23" t="n">
-        <v>170.3690333149453</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="N23" t="n">
-        <v>173.5650044408945</v>
+        <v>112.0681007980493</v>
       </c>
       <c r="O23" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="P23" t="n">
-        <v>165.5317423883137</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>46.30566725758027</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>25.60609762271692</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>59.36392958930734</v>
+        <v>171.6647408465574</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="O24" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730517</v>
       </c>
       <c r="P24" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.7005765146417</v>
+        <v>19.00586288010841</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>413.1646153955678</v>
       </c>
       <c r="M26" t="n">
-        <v>459.7080865034969</v>
+        <v>459.7080865034968</v>
       </c>
       <c r="N26" t="n">
         <v>449.9558388556146</v>
@@ -36616,7 +36616,7 @@
         <v>195.3077574804368</v>
       </c>
       <c r="R26" t="n">
-        <v>31.88014854223882</v>
+        <v>31.88014854223979</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36747,16 +36747,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5839673825297753</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>72.17574026944447</v>
       </c>
       <c r="K28" t="n">
-        <v>24.47182040905256</v>
+        <v>153.9011170399558</v>
       </c>
       <c r="L28" t="n">
-        <v>211.3584655526038</v>
+        <v>82.51313630423031</v>
       </c>
       <c r="M28" t="n">
         <v>76.24011850808006</v>
@@ -36841,19 +36841,19 @@
         <v>459.7080865034969</v>
       </c>
       <c r="N29" t="n">
-        <v>449.955838855614</v>
+        <v>449.9558388556147</v>
       </c>
       <c r="O29" t="n">
-        <v>387.5401023963828</v>
+        <v>387.5401023963825</v>
       </c>
       <c r="P29" t="n">
-        <v>314.5338326111702</v>
+        <v>314.5338326111703</v>
       </c>
       <c r="Q29" t="n">
         <v>195.3077574804368</v>
       </c>
       <c r="R29" t="n">
-        <v>31.8801485422398</v>
+        <v>31.88014854223983</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3866172046441818</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.568127576287395</v>
       </c>
       <c r="F31" t="n">
-        <v>3.581042199925292</v>
+        <v>3.581042199925321</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.17574026944447</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>4.899026817099255</v>
       </c>
       <c r="L31" t="n">
-        <v>211.3584655526038</v>
+        <v>62.35637532974724</v>
       </c>
       <c r="M31" t="n">
-        <v>76.24011850808006</v>
+        <v>168.5726197520071</v>
       </c>
       <c r="N31" t="n">
-        <v>102.255081778353</v>
+        <v>228.9189006550835</v>
       </c>
       <c r="O31" t="n">
         <v>57.63803306748929</v>
@@ -37008,7 +37008,7 @@
         <v>174.563119912338</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.42136349858846</v>
+        <v>82.42136349858849</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>181.2989258938928</v>
+        <v>181.2989258938927</v>
       </c>
       <c r="K32" t="n">
-        <v>319.3711235378019</v>
+        <v>319.371123537802</v>
       </c>
       <c r="L32" t="n">
         <v>413.1646153955678</v>
       </c>
       <c r="M32" t="n">
-        <v>459.7080865034968</v>
+        <v>459.7080865034969</v>
       </c>
       <c r="N32" t="n">
         <v>449.9558388556146</v>
       </c>
       <c r="O32" t="n">
-        <v>387.5401023963828</v>
+        <v>387.5401023963827</v>
       </c>
       <c r="P32" t="n">
         <v>314.5338326111702</v>
@@ -37090,7 +37090,7 @@
         <v>195.3077574804368</v>
       </c>
       <c r="R32" t="n">
-        <v>31.88014854223979</v>
+        <v>31.88014854223977</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3866172046441818</v>
+        <v>0.3866172046441534</v>
       </c>
       <c r="E34" t="n">
-        <v>2.568127576287367</v>
+        <v>2.568127576287338</v>
       </c>
       <c r="F34" t="n">
-        <v>3.581042199925292</v>
+        <v>3.581042199925264</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>25.36515731501587</v>
       </c>
       <c r="K34" t="n">
         <v>4.899026817099255</v>
       </c>
       <c r="L34" t="n">
-        <v>211.3584655526038</v>
+        <v>211.3584655526037</v>
       </c>
       <c r="M34" t="n">
         <v>76.24011850808006</v>
@@ -37245,7 +37245,7 @@
         <v>25.56102968948143</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.36515731501528</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,19 +37300,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>11.05475418179598</v>
       </c>
       <c r="J35" t="n">
-        <v>233.7294074628109</v>
+        <v>233.7294074628107</v>
       </c>
       <c r="K35" t="n">
         <v>170.3690333149453</v>
       </c>
       <c r="L35" t="n">
-        <v>264.1625251727113</v>
+        <v>465.5950969644858</v>
       </c>
       <c r="M35" t="n">
-        <v>496.5136161699168</v>
+        <v>310.7059962806403</v>
       </c>
       <c r="N35" t="n">
         <v>300.9537486327581</v>
@@ -37324,13 +37324,13 @@
         <v>165.5317423883137</v>
       </c>
       <c r="Q35" t="n">
-        <v>96.19522315579918</v>
+        <v>65.22350472271205</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.292012348794557</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37482,10 +37482,10 @@
         <v>25.56102968948143</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.725078441760459</v>
       </c>
       <c r="R37" t="n">
-        <v>5.725078441759541</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>11.05475418179606</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>168.3366148167823</v>
+        <v>233.7294074628107</v>
       </c>
       <c r="K38" t="n">
         <v>170.3690333149453</v>
@@ -37555,7 +37555,7 @@
         <v>300.9537486327581</v>
       </c>
       <c r="O38" t="n">
-        <v>439.9705839653009</v>
+        <v>389.9245578498644</v>
       </c>
       <c r="P38" t="n">
         <v>165.5317423883137</v>
@@ -37564,10 +37564,10 @@
         <v>46.30566725758027</v>
       </c>
       <c r="R38" t="n">
-        <v>84.31063011115785</v>
+        <v>84.31063011115776</v>
       </c>
       <c r="S38" t="n">
-        <v>4.292012348794643</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146419</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>62.35637532974724</v>
       </c>
       <c r="M40" t="n">
-        <v>81.96519694983986</v>
+        <v>76.24011850808006</v>
       </c>
       <c r="N40" t="n">
         <v>79.9168104322269</v>
@@ -37716,7 +37716,7 @@
         <v>57.63803306748929</v>
       </c>
       <c r="P40" t="n">
-        <v>25.56102968948143</v>
+        <v>31.28610813124176</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>32.29683567103623</v>
       </c>
       <c r="K41" t="n">
-        <v>371.80160510672</v>
+        <v>170.3690333149453</v>
       </c>
       <c r="L41" t="n">
-        <v>298.4271291684311</v>
+        <v>415.5490708490493</v>
       </c>
       <c r="M41" t="n">
         <v>310.7059962806403</v>
@@ -37792,16 +37792,16 @@
         <v>300.9537486327581</v>
       </c>
       <c r="O41" t="n">
-        <v>439.9705839653009</v>
+        <v>238.5380121735263</v>
       </c>
       <c r="P41" t="n">
-        <v>165.5317423883137</v>
+        <v>366.9643141800882</v>
       </c>
       <c r="Q41" t="n">
         <v>46.30566725758027</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>84.31063011115776</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.7005765146405</v>
+        <v>105.7005765146417</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.725078441759576</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.725078441760345</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.05475418179598</v>
       </c>
       <c r="J44" t="n">
-        <v>82.18639156925457</v>
+        <v>32.29683567103623</v>
       </c>
       <c r="K44" t="n">
-        <v>170.3690333149453</v>
+        <v>371.8016051067199</v>
       </c>
       <c r="L44" t="n">
         <v>264.1625251727113</v>
       </c>
       <c r="M44" t="n">
-        <v>496.5136161699165</v>
+        <v>310.7059962806403</v>
       </c>
       <c r="N44" t="n">
         <v>300.9537486327581</v>
       </c>
       <c r="O44" t="n">
-        <v>439.9705839653009</v>
+        <v>439.9705839653008</v>
       </c>
       <c r="P44" t="n">
         <v>165.5317423883137</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.30566725758027</v>
+        <v>69.51551707150571</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>171.6647408465574</v>
       </c>
       <c r="L45" t="n">
-        <v>292.8490715269725</v>
+        <v>292.8490715269737</v>
       </c>
       <c r="M45" t="n">
         <v>394.2453179567719</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5.725078441759576</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>57.63803306748929</v>
       </c>
       <c r="P46" t="n">
-        <v>25.56102968948143</v>
+        <v>31.28610813124182</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
